--- a/Scrapin/AmazonScrapin/BasesDeDatosLimpias/Electrónicos.xlsx
+++ b/Scrapin/AmazonScrapin/BasesDeDatosLimpias/Electrónicos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Cargador-retr%C3%A1ctil-autom%C3%B3vil-adaptador-compatible/dp/B0D4215HCX/ref=sr_1_1?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-1</t>
+          <t>https://www.amazon.com/-/es/Cargador-retr%C3%A1ctil-autom%C3%B3vil-adaptador-compatible/dp/B0D4215HCX/ref=sr_1_1?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19.99</v>
+        <v>16.99</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -532,22 +532,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/comprimido-engranajes-soplador-inal%C3%A1mbrico-enlatados/dp/B0D5BDNR8R/ref=sr_1_2?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-2</t>
+          <t>https://www.amazon.com/-/es/Apple-iPad-10%C2%AA-generaci%C3%B3n-pantalla/dp/B0BJLXMVMV/ref=sr_1_2?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plumero de aire comprimido, 3 engranajes a 100000 RPM, soplador de aire inalámbrico portátil con luz LED, para limpieza de teclado y PC, kit de limpieza de aire, sin plumeros de aire enlatados,</t>
+          <t>Apple iPad (10ª generación): con chip A14 Bionic, pantalla de retina líquida de 10.9 pulgadas, 64 GB, Wi-Fi 6, cámara frontal de 12 MP/trasera de 12 MP, Touch ID, duración de la batería durante todo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B0D5BDNR8R</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>29.98</v>
-      </c>
+          <t>B0BJLXMVMV</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -555,42 +553,42 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
-        <v>236</v>
+        <v>17838</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/719F4I7zVYL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61uA2UVnYWL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-almacenamiento-microborde-Microsoft/dp/B0947BJ67M/ref=sr_1_3?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-3</t>
+          <t>https://www.amazon.com/-/es/exteriores-actualizado-compatible-inteligente-sincronizaci%C3%B3n/dp/B099N4NSSD/ref=sr_1_3?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HP Computadora portátil 14, Intel Celeron N4020, 4 GB de RAM, 64 GB de almacenamiento, pantalla HD de microborde de 14 pulgadas, Windows 11 Home, delgada y portátil, gráficos 4K, un año de Microsoft</t>
+          <t>Proyector con WiFi y Bluetooth, proyector para exteriores actualizado 2024, mini proyector de películas compatible con pantalla de teléfono inteligente de sincronización de 1080P por cable WiFi/USB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B0947BJ67M</t>
+          <t>B099N4NSSD</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>183.49</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -603,14 +601,14 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1661</v>
+        <v>4296</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/815uX7wkOZS._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71bPcqUviTL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -620,21 +618,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/exteriores-actualizado-compatible-inteligente-sincronizaci%C3%B3n/dp/B099N4NSSD/ref=sr_1_4?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-4</t>
+          <t>https://www.amazon.com/-/es/Computadora-port%C3%A1til-almacenamiento-microborde-Microsoft/dp/B0947BJ67M/ref=sr_1_4?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyector con WiFi y Bluetooth, proyector para exteriores actualizado 2024, mini proyector de películas compatible con pantalla de teléfono inteligente de sincronización de 1080P por cable WiFi/USB</t>
+          <t>HP Computadora portátil 14, Intel Celeron N4020, 4 GB de RAM, 64 GB de almacenamiento, pantalla HD de microborde de 14 pulgadas, Windows 11 Home, delgada y portátil, gráficos 4K, un año de Microsoft</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B099N4NSSD</t>
+          <t>B0947BJ67M</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>89.98999999999999</v>
+        <v>179.98</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -647,14 +645,14 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>4247</v>
+        <v>1697</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71bPcqUviTL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/815uX7wkOZS._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -664,22 +662,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Auriculares-auriculares-inmersivo-comodidad-conciencia/dp/B0CPFV77W4/ref=sr_1_5_mod_primary_new?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-5</t>
+          <t>https://www.amazon.com/-/es/generaci%C3%B3n-auriculares-inal%C3%A1mbricos-cancelaci%C3%B3n-transparencia/dp/B0D1XD1ZV3/ref=sr_1_5?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bose Auriculares ultra abiertos, auriculares abiertos de audio inmersivo, auriculares con clip para mayor comodidad, auriculares para correr con OpenAudio para conciencia, hasta 48 horas de duración</t>
+          <t>Apple AirPods Pro (2ª generación) auriculares inalámbricos con carga USB-C, hasta 2 veces más auriculares Bluetooth con cancelación activa de ruido, modo de transparencia, audio adaptativo, audio</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B0CPFV77W4</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>299</v>
-      </c>
+          <t>B0D1XD1ZV3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -687,43 +683,41 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1787</v>
+        <v>6720</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51LyCgwzz9L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61SUj2aKoEL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/JBL-Tune-Flex-Auriculares-inal%C3%A1mbricos/dp/B0C1QNRGHC/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-6</t>
+          <t>https://www.amazon.com/-/es/generaci%C3%B3n-pantalla-pulgadas-duraci%C3%B3n-espacial/dp/B09G91LXFP/ref=sr_1_6?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JBL Tune Flex - Auriculares inalámbricos con cancelación de ruido (negro), pequeños</t>
+          <t>Apple iPad Mini (6ª generación), chip A15 Bionic, pantalla de retina líquida de 8.3 pulgadas, 64GB, Wi-Fi 6, cámara frontal y trasera de 12MP, Touch ID, batería larga duración, gris espacial</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B0C1QNRGHC</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>49.95</v>
-      </c>
+          <t>B09G91LXFP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -731,42 +725,42 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>4 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H7" t="n">
-        <v>5119</v>
+        <v>10610</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61joErBxERL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71ey-9D8yDL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Skylight-Calendario-inteligente-interactiva-familiares/dp/B0C9V811L6/ref=sr_1_7?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-7</t>
+          <t>https://www.amazon.com/-/es/comprimido-engranajes-soplador-inal%C3%A1mbrico-enlatados/dp/B0D5BDNR8R/ref=sr_1_7?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Skylight Calendario: Calendario digital de 15 pulgadas y gráfico de tareas, pantalla táctil inteligente interactiva para horarios familiares - montaje en pared incluido</t>
+          <t>Plumero de aire comprimido, 3 engranajes a 100000 RPM, soplador de aire inalámbrico portátil con luz LED, para limpieza de teclado y PC, kit de limpieza de aire, sin plumeros de aire enlatados,</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B0C9V811L6</t>
+          <t>B0D5BDNR8R</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>309.98</v>
+        <v>29.98</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -775,42 +769,42 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>948</v>
+        <v>251</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61kdlvrgoUL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/719F4I7zVYL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/muscular-masajeador-el%C3%A9ctrico-dispositivo-percusi%C3%B3n/dp/B09P1DV7D8/ref=sr_1_8?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-8</t>
+          <t>https://www.amazon.com/-/es/pulgadas-pantalla-altavoces-cu%C3%A1druples-m%C3%BAltiples/dp/B0CLF3VPMV/ref=sr_1_8?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pistola de masaje, pistola de masaje muscular para atletas, masajeador eléctrico de espalda de tejido profundo, dispositivo de masaje de percusión para aliviar el dolor con 30 niveles de</t>
+          <t>SAMSUNG Galaxy Tab A9+ Tablet Android de 11 pulgadas y 64 GB, pantalla grande, altavoces cuádruples, chipset mejorado, pantalla de múltiples ventanas, diseño delgado, ligero, duradero, versión</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B09P1DV7D8</t>
+          <t>B0CLF3VPMV</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29.99</v>
+        <v>169.95</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -819,42 +813,42 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5 K+ comprados el mes pasado</t>
+          <t>6 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>11132</v>
+        <v>5576</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/712UHB03CbL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61d46oYQgdL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Alesis-Nitro-Max-Kit-almohadillas/dp/B0C43R8SRB/ref=sr_1_9?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-9</t>
+          <t>https://www.amazon.com/-/es/Skylight-Calendario-inteligente-interactiva-familiares/dp/B0C9V811L6/ref=sr_1_9?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alesis Nitro Max Kit - Juego de batería eléctrica con almohadillas de malla silenciosas, caja de doble zona de 10 pulgadas, Bluetooth, más de 440 sonidos auténticos, Drumeo, USB MIDI, pedal de patada</t>
+          <t>Skylight Calendario: Calendario digital de 15 pulgadas y gráfico de tareas, pantalla táctil inteligente interactiva para horarios familiares - montaje en pared incluido</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B0C43R8SRB</t>
+          <t>B0C9V811L6</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>399</v>
+        <v>307</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -863,42 +857,42 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>900+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>678</v>
+        <v>987</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71bYhi2A-nL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61kdlvrgoUL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Cargador-paquete-unidades-cargador-compatible/dp/B0D5TW839Q/ref=sr_1_10?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-10</t>
+          <t>https://www.amazon.com/-/es/LC-dolida-Auriculares-Bluetooth-inal%C3%A1mbrica-auriculares/dp/B07T6FNLQV/ref=sr_1_10?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cargador USB C para iPhone, carga rápida, paquete de 3 unidades de 20 W, tipo C, cargador de pared con cable de carga USB C de 6 pies de largo, compatible con iPhone 14Pro/13 Pro/12/12 Pro Max/11/XS</t>
+          <t>LC-dolida - Auriculares para dormir, máscara de dormir Bluetooth 3D inalámbrica con música para dormir de lado, máscara de dormir con auriculares Bluetooth, altavoces estéreo delgados regalos para hombres y mujeres</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B0D5TW839Q</t>
+          <t>B07T6FNLQV</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.99</v>
+        <v>23.99</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -907,42 +901,42 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4 K+ comprados el mes pasado</t>
+          <t>7 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
-        <v>505</v>
+        <v>21681</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51ktwFF4xXL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81hJ4SQSJFL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/LC-dolida-Auriculares-Bluetooth-inal%C3%A1mbrica-auriculares/dp/B07T6FNLQV/ref=sr_1_11?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-11</t>
+          <t>https://www.amazon.com/-/es/JBL-Tune-Flex-Auriculares-inal%C3%A1mbricos/dp/B0C1QNRGHC/ref=sr_1_11?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LC-dolida - Auriculares para dormir, máscara de dormir Bluetooth 3D inalámbrica con música para dormir de lado, máscara de dormir con auriculares Bluetooth, altavoces estéreo delgados regalos para hombres y mujeres</t>
+          <t>JBL Tune Flex - Auriculares inalámbricos con cancelación de ruido (negro), pequeños</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B07T6FNLQV</t>
+          <t>B0C1QNRGHC</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28.99</v>
+        <v>49.95</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -951,42 +945,42 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7 K+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>21882</v>
+        <v>5335</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81hJ4SQSJFL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61joErBxERL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1MjgwMzEyNDIxMjkxMDE6MTcyNTg3NjE5NDpzcF9tdGY6MzAwMjA2MjIyNjg1MDAyOjowOjo&amp;url=%2FProyector-el%25C3%25A9ctrico-exteriores-autom%25C3%25A1tico-inteligente%2Fdp%2FB0CXXVT4R5%2Fref%3Dsr_1_12_sspa%3Fdib%3DeyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876194%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNDM0ODIwNDQ4OTkyNTkwOjE3MjY3NTk1MTg6c3BfbXRmOjMwMDE2MTQ2MDcwMjAwMjo6MDo6&amp;url=%2FProyector-Bluetooth-proyector-pel%25C3%25ADcula-compatible%2Fdp%2FB0CF45RRQX%2Fref%3Dsr_1_12_sspa%3Fdib%3DeyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759518%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyector de enfoque eléctrico con WiFi 6 y Bluetooth 5.2, proyector 500 ANSI 4K, proyector de película nativo 1080P para exteriores, Keystone automático, pantalla táctil, proyector inteligente</t>
+          <t>Proyector Bluetooth WiFi 5G, proyector de película pericat Native 1080P para teléfono, proyector portátil al aire libre, proyector de video de cine en casa de 13000L, mini proyector compatible con PC,</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B0CXXVT4R5</t>
+          <t>B0CF45RRQX</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>129.99</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -995,40 +989,42 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>600+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>31</v>
+        <v>2242</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71MCEuEJF+L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81R4Zo6u3eL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/port%C3%A1til-autom%C3%A1tica-inal%C3%A1mbrico-autom%C3%B3vil-navegaci%C3%B3n/dp/B0DCBM6CMH/ref=sr_1_13?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-13</t>
+          <t>https://www.amazon.com/-/es/etiquetadora-P21-etiquetadoras-inal%C3%A1mbricas-plantillas/dp/B0C3L93F2Q/ref=sr_1_13?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Carplay portátil de 9 pulgadas y pantalla táctil automática Android, estéreo inalámbrico para automóvil con cámara de tablero 4K, cámara de respaldo de 1080P, navegación GPS, enlace de espejo, control</t>
+          <t>Nelko Máquina etiquetadora con cinta, impresora de etiquetas Bluetooth P21, mini etiquetadoras inalámbricas con múltiples plantillas para organizar la oficina y el hogar, color blanco</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B0DCBM6CMH</t>
+          <t>B0C3L93F2Q</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>139.99</v>
+        <v>29.89</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1037,42 +1033,42 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>20 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>5410</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/7140OczUpBL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/618uNch+1pL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Frameo-pulgadas-electr%C3%B3nico-rotaci%C3%B3n-autom%C3%A1tica/dp/B088NHSVJN/ref=sr_1_14?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-14</t>
+          <t>https://www.amazon.com/-/es/extensi%C3%B3n-regleta-alimentaci%C3%B3n-ultrafino-protector/dp/B0C5MFHCLC/ref=sr_1_14?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Frameo - Marco de fotos digital WiFi de 10.1 pulgadas, 1280 x 800 HD IPS, marco de fotos electrónico, 32 GB de memoria, rotación automática, montaje en pared, comparte fotos/videos al instante a</t>
+          <t>Cable de extensión plano de 15 pies, regleta de alimentación de enchufe plano con USB C, cable de extensión de enchufe plano ultrafino, 6 salidas con 4 puertos USB (2 salidas USB C), sin protector de</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B088NHSVJN</t>
+          <t>B0C5MFHCLC</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69.98999999999999</v>
+        <v>19.99</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1081,42 +1077,42 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
-        <v>4284</v>
+        <v>2569</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61O+aorCp0L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71JlYzKqc4L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/MiracleWipes-Toallitas-electr%C3%B3nica-toallitas-microfibra/dp/B086GKB4SB/ref=sr_1_15?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-15</t>
+          <t>https://www.amazon.com/-/es/Alesis-Nitro-Max-Kit-almohadillas/dp/B0C43R8SRB/ref=sr_1_15?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MiracleWipes - Toallitas para limpieza electrónica, toallitas para pantalla diseñadas para TV, teléfonos, monitores y más, incluye toalla de microfibra (60 unidades)</t>
+          <t>Alesis Nitro Max Kit - Juego de batería eléctrica con almohadillas de malla silenciosas, caja de doble zona de 10 pulgadas, Bluetooth, más de 440 sonidos auténticos, Drumeo, USB MIDI, pedal de patada</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B086GKB4SB</t>
+          <t>B0C43R8SRB</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16.97</v>
+        <v>399</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1125,28 +1121,28 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>900+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>4.4</v>
       </c>
       <c r="H16" t="n">
-        <v>19992</v>
+        <v>683</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81Gal4m42WL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71bYhi2A-nL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/proyector-port%C3%A1til-exteriores-tel%C3%A9fono-compatible/dp/B0CD2BS3QX/ref=sr_1_16?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-16</t>
+          <t>https://www.amazon.com/-/es/proyector-port%C3%A1til-exteriores-tel%C3%A9fono-compatible/dp/B0CD2BS3QX/ref=sr_1_16?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,7 +1156,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>49.99</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1169,14 +1165,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>4.3</v>
       </c>
       <c r="H17" t="n">
-        <v>1558</v>
+        <v>1596</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1184,27 +1180,27 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1MjgwMzEyNDIxMjkxMDE6MTcyNTg3NjE5NDpzcF9tdGY6MzAwMzk5MzMzMzE0ODAyOjowOjo&amp;url=%2Felegible-masajeadora-profundo-percusi%25C3%25B3n-el%25C3%25A9ctrica%2Fdp%2FB0D14N8B5M%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876194%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1%26smid%3DA1NCW8Y125T2K9</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNDM0ODIwNDQ4OTkyNTkwOjE3MjY3NTk1MTg6c3BfbXRmOjMwMDI3MTgyNzkxNjAwMjo6MDo6&amp;url=%2F10-1-pulgadas-pantalla-autom%25C3%25A1tica-instalaci%25C3%25B3n%2Fdp%2FB0D62VJV2Y%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759518%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bob and Brad Pistola de masaje X6 Pro Max con terapia de cabeza de calor, frío y metal, elegible para FSA/HSA, pistola masajeadora de tejido profundo de percusión para atletas, pistola eléctrica de</t>
+          <t>Marco de fotos digital WiFi de 10.1 pulgadas, marco de fotos digital con pantalla táctil IPS HD de 1280 x 800, memoria de 32 GB, rotación automática, montaje en pared, fácil instalación, envía</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B0D14N8B5M</t>
+          <t>B0D62VJV2Y</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>135.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1213,42 +1209,40 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1636</v>
+        <v>76</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/612nRGcIP7L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>400</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71VK9KxDrZL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/etiquetadora-P21-etiquetadoras-inal%C3%A1mbricas-plantillas/dp/B0C3L93F2Q/ref=sr_1_18?dib=eyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876194&amp;sr=8-18</t>
+          <t>https://www.amazon.com/-/es/destornilladores-herramientas-reparaci%C3%B3n-profesional-computadora/dp/B0CBTYZY2S/ref=sr_1_18?dib=eyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759518&amp;sr=8-18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nelko Máquina etiquetadora con cinta, impresora de etiquetas Bluetooth P21, mini etiquetadoras inalámbricas con múltiples plantillas para organizar la oficina y el hogar, color blanco</t>
+          <t>AXTH Juego de destornilladores de precisión pequeños 25 en 1, kit de herramientas de reparación magnética profesional para teléfono, computadora, reloj, laptop, Macbook, timbre de timbre de anillo,</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B0C3L93F2Q</t>
+          <t>B0CBTYZY2S</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19.98</v>
+        <v>9.99</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1257,42 +1251,42 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>20 K+ comprados el mes pasado</t>
+          <t>7 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>5227</v>
+        <v>1103</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/618uNch+1pL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71nTeoleWWL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1MjgwMzEyNDIxMjkxMDE6MTcyNTg3NjE5NDpzcF9idGY6MzAwNDAwOTE2MDYzOTAyOjowOjo&amp;url=%2Fproyector-inteligente-integrado-Bluetooth-compatible%2Fdp%2FB0CRHFHCLC%2Fref%3Dsr_1_19_sspa%3Fdib%3DeyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876194%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNDM0ODIwNDQ4OTkyNTkwOjE3MjY3NTk1MTg6c3BfYnRmOjMwMDI5NTYxNTM5MTAwMjo6MDo6&amp;url=%2Fpulgadas-rotaci%25C3%25B3n-autom%25C3%25A1tica-pantalla-comparte%2Fdp%2FB0CLXWVLRW%2Fref%3Dsr_1_19_sspa%3Fdib%3DeyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759518%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mini proyector, proyector inteligente Natvie 1080P Android TV 11.0 integrado, con Wifi y Bluetooth, Auto Keystone 4K compatible con 12000 lúmenes, proyector de tiro corto de rotación de 180</t>
+          <t>Marco de fotos digital WiFi de 15.6 pulgadas, memoria de 32 GB, rotación automática, pantalla táctil IPS HD 1920 x 1080, marco de fotos digital grande, comparte momentos al instante a través de</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B0CRHFHCLC</t>
+          <t>B0CLXWVLRW</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>99.98999999999999</v>
+        <v>129.99</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1305,14 +1299,14 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
-        <v>164</v>
+        <v>978</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/815w0OufxBL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71ZubXY1pSL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1322,21 +1316,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1MjgwMzEyNDIxMjkxMDE6MTcyNTg3NjE5NDpzcF9idGY6MzAwMjEzMDg3MjUzMTAyOjowOjo&amp;url=%2FAuriculares-inal%25C3%25A1mbricos-cancelaci%25C3%25B3n-autoajustables-reproducci%25C3%25B3n%2Fdp%2FB0B1LVC5VZ%2Fref%3Dsr_1_20_sspa%3Fdib%3DeyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876194%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNDM0ODIwNDQ4OTkyNTkwOjE3MjY3NTk1MTg6c3BfYnRmOjMwMDQyNDc4MTk1NzkwMjo6MDo6&amp;url=%2FProyector-Bluetooth-proyector-pel%25C3%25ADculas-compatible%2Fdp%2FB0DB1RVX2B%2Fref%3Dsr_1_20_sspa%3Fdib%3DeyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759518%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Soundcore by Anker Space A40 Auriculares inalámbricos con cancelación activa de ruido, reducen el ruido hasta un 98%, tiempo de reproducción ultra largo de 50 horas, tiempo de reproducción único de 10</t>
+          <t>Proyector con Wifi y Bluetooth, proyector de películas Proyector portátil nativo 1080P Soporte 4K, proyector exterior de 18000L, pantalla de 200 pulgadas, proyector de video compatible con</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B0B1LVC5VZ</t>
+          <t>B0DB1RVX2B</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>47.99</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1345,42 +1339,42 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>13135</v>
+        <v>25</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51EwBP9U2YL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71T4-BTZiZL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1MjgwMzEyNDIxMjkxMDE6MTcyNTg3NjE5NDpzcF9idGY6MzAwMjg5NDg1OTk2MzAyOjowOjo&amp;url=%2FProyector-autom%25C3%25A1tico-interiores-exteriores-aplicaciones%2Fdp%2FB0CY5GCGT9%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.ZvwoN-i8FFuSi3WgF40HuSZL8PLTBLGBQaE8OUlPfTQWDuWf8JSJeeZURhzbua5r8TWYmjjwXTDhWla4WR88RGlSkHxgOtcknldyWVq6o-AvyvTwGSvnLhbPAt0ux7PRoJV8-g2RmR5hc-7QCSNycuuIW1vmgixaU5u9ZVU2sgBx7XPEhW9nYOlQ08Y_GFl6tNS9mm9sa6Vq7ArRXXooU2ErhEslw58m5OAas7blV_E.Mi-m3PKb1c0PxCVJVpFa0xPmlzlUAYCyZcnCL0b97Xo%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876194%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1%26smid%3DATVWHKBHQR8G9</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNDM0ODIwNDQ4OTkyNTkwOjE3MjY3NTk1MTg6c3BfYnRmOjMwMDE2NzkzODAwNjcwMjo6MDo6&amp;url=%2Fexteriores-actualizado-compatible-inteligente-sincronizaci%25C3%25B3n%2Fdp%2FB099N4NSSD%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.Z1lw7M-f8KBHr8XaDz5XwmRU0UwERf7WkVYldJFJnCBOnBSDIt_Z-LX6RY6XezM-BgHpK7FZWK_QQ77pQY64oHTNkHwGRYpB4gmmTy-Or1_PXTWwxtmB321N_FCzG9REH08fC4E41YvlWMDlWpRqDX3qo4m--kFgSz2CK4OC4M9gzUKMoT7HLMcTn8MQjwQ0j7c4IHRVEvG9sDlZCdn01zaUKgjQEX-rX3nR0l5-0L0.7j6EVA9RgES5lhRUuZVNFMrnECe4wE7lNs9hbph5pLU%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759518%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Proyector de luz diurna de enfoque automático 4K, proyector de juegos de película Ultra HD, LED Smart WiFi, Bluetooth, proyector de cine en casa para interiores y exteriores, 4K HDR HDMI, aplicaciones</t>
+          <t>Proyector con WiFi y Bluetooth, proyector para exteriores actualizado 2024, mini proyector de películas compatible con pantalla de teléfono inteligente de sincronización de 1080P por cable WiFi/USB</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B0CY5GCGT9</t>
+          <t>B099N4NSSD</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>495</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1389,40 +1383,42 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>4 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>14</v>
+        <v>4296</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71WXBOjgq9L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71bPcqUviTL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1ODgxMTg0NjA3MTY0OTkxOjE3MjU4NzYyMTM6c3BfYXRmX25leHQ6MjAwMDk3NjkwNjI4Nzk4OjowOjo&amp;url=%2Fremanufacturado-capacidad-Versalink-106R03584-rendimiento%2Fdp%2FB07G8PG9B1%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876213%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4OTYzNDc0NDAyNTc2MzYyOjE3MjY3NTk1MzM6c3BfYXRmX25leHQ6MzAwMzcxMjczODMwNjAyOjowOjo&amp;url=%2Fpulgadas-electr%25C3%25B3nico-almacenamiento-pantalla-autom%25C3%25A1tica%2Fdp%2FB0CJ54F831%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759533%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Toner Pros [Cartucho de tóner remanufacturado de capacidad extra alta para Xerox Versalink 106R03584 (negro, rendimiento de páginas: 24,600 páginas) para impresoras Xerox Versalink B400,405DN</t>
+          <t>KODAK Marco de fotos digital de 10.1 pulgadas con WiFi, marco electrónico WiFi con almacenamiento de 32 GB, pantalla táctil IPS HD de 1280 x 800, rotación automática, comparte fotos y videos, para</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B07G8PG9B1</t>
+          <t>B0CJ54F831</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>129.99</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1431,18 +1427,18 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51Fsy2ApMPL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71PXqm8v7SL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1450,21 +1446,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/pulgadas-pantalla-altavoces-cu%C3%A1druples-m%C3%BAltiples/dp/B0CLF3VPMV/ref=sr_1_19?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-19</t>
+          <t>https://www.amazon.com/-/es/autom%C3%B3vil-salpicadero-parabrisas-ventilaci%C3%B3n-tel%C3%A9fonos/dp/B0D6R7ZR5P/ref=sr_1_19?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy Tab A9+ Tablet Android de 11 pulgadas y 64 GB, pantalla grande, altavoces cuádruples, chipset mejorado, pantalla de múltiples ventanas, diseño delgado, ligero, duradero, versión</t>
+          <t>Soporte de teléfono 3 en 1 mejorado para automóvil [potente succión] Soporte de teléfono para salpicadero de automóvil, parabrisas de ventilación de aire, para todos los teléfonos iPhone y</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B0CLF3VPMV</t>
+          <t>B0D6R7ZR5P</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>197.99</v>
+        <v>18.99</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1473,42 +1469,42 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6 K+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H24" t="n">
-        <v>5329</v>
+        <v>4046</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61d46oYQgdL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71O2w5u9ECL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/inal%C3%A1mbricos-impermeable-reproducci%C3%B3n-emparejamiento-dispositivos/dp/B0BRKQDS3S/ref=sr_1_20?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-20</t>
+          <t>https://www.amazon.com/-/es/MiracleWipes-Toallitas-electr%C3%B3nica-toallitas-microfibra/dp/B086GKB4SB/ref=sr_1_20?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Altavoces inalámbricos portátiles Bluetooth con sonido HD, IPX5 impermeable, hasta 24 horas de reproducción, emparejamiento TWS, BT5.3, para el hogar, fiesta, al aire libre/playa, dispositivos</t>
+          <t>MiracleWipes - Toallitas para limpieza electrónica, toallitas para pantalla diseñadas para TV, teléfonos, monitores y más, incluye toalla de microfibra (60 unidades)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B0BRKQDS3S</t>
+          <t>B086GKB4SB</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29.99</v>
+        <v>16.97</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1521,14 +1517,14 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H25" t="n">
-        <v>13798</v>
+        <v>20035</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81DxScjnZkL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81Gal4m42WL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1538,21 +1534,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/pulgadas-incluido-duraci%C3%B3n-almacenamiento-ampliable/dp/B0CWS7W8Q1/ref=sr_1_21?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-21</t>
+          <t>https://www.amazon.com/-/es/Cargador-paquete-unidades-cargador-compatible/dp/B0D5TW839Q/ref=sr_1_21?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy Tab S6 Lite (2024) Tableta Android WiFi de 10.4 pulgadas, 64 GB, S Pen incluido, listo para jugar, batería de larga duración, diseño delgado de metal, almacenamiento ampliable, versión</t>
+          <t>Cargador USB C para iPhone, carga rápida, paquete de 3 unidades de 20 W, tipo C, cargador de pared con cable de carga USB C de 6 pies de largo, compatible con iPhone 14Pro/13 Pro/12/12 Pro Max/11/XS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B0CWS7W8Q1</t>
+          <t>B0D5TW839Q</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>272</v>
+        <v>12.99</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1561,42 +1557,42 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>4.5</v>
       </c>
       <c r="H26" t="n">
-        <v>615</v>
+        <v>559</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61QfSvAihfL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51ktwFF4xXL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Regleta-protectora-sobretensiones-extensor-extensi%C3%B3n/dp/B092J8LPWR/ref=sr_1_22?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-22</t>
+          <t>https://www.amazon.com/-/es/SoundLink-port%C3%A1til-Bluetooth-impermeable-inal%C3%A1mbrico/dp/B099TLMRB6/ref=sr_1_22?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Regleta protectora de sobretensiones – 8 salidas con 4 puertos de carga USB (2 USB C), extensor de salida múltiple, cable de extensión trenzado de 5 pies, enchufe plano, montaje en pared, estación de</t>
+          <t>Bose SoundLink Flex Altavoz portátil Bluetooth, altavoz impermeable inalámbrico para viajes al aire libre, color blanco</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B092J8LPWR</t>
+          <t>B099TLMRB6</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12.99</v>
+        <v>149</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1605,42 +1601,42 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
-        <v>43207</v>
+        <v>34828</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61q9hmplGFL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71Lp78GEMkL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Soundcore-Anker-P20i-inal%C3%A1mbricos-controladores/dp/B0D5HSP346/ref=sr_1_23?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-23</t>
+          <t>https://www.amazon.com/-/es/SAMSUNG-velocidades-secuenciales-estaciones-computaci%C3%B3n/dp/B0CHGT1KFJ/ref=sr_1_23?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-23</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Soundcore by Anker P20i - Audífonos inalámbricos verdaderos, controladores de 0.394 pulgadas con graves grandes, Bluetooth 5.3, 30 horas de tiempo de reproducción, resistentes al agua, 2 micrófonos</t>
+          <t>SAMSUNG 990 PRO SSD 4TB PCIe 4.0 M.2 2280 Disco duro interno de estado sólido, velocidades de lectura secuenciales de hasta 7,450 MB/s para estaciones de trabajo de alta gama, computación y juegos,</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B0D5HSP346</t>
+          <t>B0CHGT1KFJ</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>39.99</v>
+        <v>323.52</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1649,42 +1645,42 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>4 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H28" t="n">
-        <v>31208</v>
+        <v>9068</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61aEVxrvxHL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81WuG6lQuDL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Bose-QuietComfort-Auriculares-inal%C3%A1mbricos-cancelaci%C3%B3n/dp/B0CCZC9J1V/ref=sr_1_24?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-24</t>
+          <t>https://www.amazon.com/-/es/Soundcore-Anker-P20i-inal%C3%A1mbricos-controladores/dp/B0D5HSP346/ref=sr_1_24?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-24</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bose QuietComfort - Auriculares inalámbricos con cancelación de ruido, Bluetooth sobre la oreja con hasta 24 horas de duración de la batería, humo blanco</t>
+          <t>Soundcore by Anker P20i - Audífonos inalámbricos verdaderos, controladores de 0.394 pulgadas con graves grandes, Bluetooth 5.3, 30 horas de tiempo de reproducción, resistentes al agua, 2 micrófonos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B0CCZC9J1V</t>
+          <t>B0D5HSP346</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>349</v>
+        <v>39.99</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1693,42 +1689,42 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
-        <v>4797</v>
+        <v>32308</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51K77J9rCjL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61aEVxrvxHL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Walkers-Razor-Slim-Orejeras-electr%C3%B3nicas/dp/B01AAH8CMA/ref=sr_1_25?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-25</t>
+          <t>https://www.amazon.com/-/es/pulgadas-electr%C3%B3nico-inteligente-pantalla-autom%C3%A1tica/dp/B0D4794FG8/ref=sr_1_25?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Walker's Orejeras</t>
+          <t>Marco de fotos digital de 10.1 pulgadas, marco de fotos digital WiFi, marco electrónico inteligente de 16 GB, pantalla táctil IPS, rotación automática, fácil de usar, carga desde el teléfono,</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B01AAH8CMA</t>
+          <t>B0D4794FG8</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>38.83</v>
+        <v>49.99</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1737,42 +1733,42 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4 K+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H30" t="n">
-        <v>73294</v>
+        <v>37</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61vpMEEn3qL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71nhfuaM39L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/SAMSUNG-velocidades-secuenciales-estaciones-computaci%C3%B3n/dp/B0CHGT1KFJ/ref=sr_1_26?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-26</t>
+          <t>https://www.amazon.com/-/es/Kakyanill-protecci%C3%B3n-sobretensiones-extensi%C3%B3n-estaci%C3%B3n/dp/B0D5D6Q8B7/ref=sr_1_26?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-26</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAMSUNG 990 PRO SSD 4TB PCIe 4.0 M.2 2280 Disco duro interno de estado sólido, velocidades de lectura secuenciales de hasta 7,450 MB/s para estaciones de trabajo de alta gama, computación y juegos,</t>
+          <t>Cubo de regleta con puertos USB, protección contra sobretensiones de 900 julios, cable de extensión de enchufe plano de 5 pies, 3 salidas de CA, 3 puertos USB (2 USB C), estación de carga de</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B0CHGT1KFJ</t>
+          <t>B0D5D6Q8B7</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>319.99</v>
+        <v>12.99</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1781,42 +1777,42 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4 K+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H31" t="n">
-        <v>8925</v>
+        <v>38</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81WuG6lQuDL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61fygeWUEZL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1ODgxMTg0NjA3MTY0OTkxOjE3MjU4NzYyMTM6c3BfbXRmOjMwMDM3MTI3MzgzMDYwMjo6MDo6&amp;url=%2Fpulgadas-electr%25C3%25B3nico-almacenamiento-pantalla-autom%25C3%25A1tica%2Fdp%2FB0CJ54F831%2Fref%3Dsr_1_27_sspa%3Fdib%3DeyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876213%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4OTYzNDc0NDAyNTc2MzYyOjE3MjY3NTk1MzM6c3BfbXRmOjMwMDA2MDk4ODIxMDEwMjo6MDo6&amp;url=%2FAuriculares-inal%25C3%25A1mbricos-impermeable-cancelaci%25C3%25B3n-conciencia%2Fdp%2FB0C1LNWGKB%2Fref%3Dsr_1_28_sspa%3Fdib%3DeyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759533%26sr%3D8-28-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KODAK Marco de fotos digital de 10.1 pulgadas con WiFi, marco electrónico WiFi con almacenamiento de 32 GB, pantalla táctil IPS HD de 1280 x 800, rotación automática, comparte fotos y videos, para</t>
+          <t>Raycon Auriculares inalámbricos Bluetooth con micrófono integrado de 56 horas de batería, IPX7 impermeable, cancelación activa de ruido, modo de conciencia y Bluetooth 5.3 (verde)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>B0CJ54F831</t>
+          <t>B0C1LNWGKB</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>129.99</v>
+        <v>119.99</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1825,40 +1821,42 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H32" t="n">
-        <v>15</v>
+        <v>7599</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71PXqm8v7SL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/51vL9ofbNpL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1ODgxMTg0NjA3MTY0OTkxOjE3MjU4NzYyMTM6c3BfbXRmOjMwMDQwMjcwNTE1OTMwMjo6MDo6&amp;url=%2Fcomprimido-recargable-engranajes-computadora-inal%25C3%25A1mbrico%2Fdp%2FB0D9W3RVLZ%2Fref%3Dsr_1_28_sspa%3Fdib%3DeyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876213%26sr%3D8-28-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Walkers-Razor-Slim-Orejeras-electr%C3%B3nicas/dp/B01AAH8CMA/ref=sr_1_29?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Soplador eléctrico de aire comprimido de 130000 rpm, turbo, recargable, 3 engranajes, pistola de aire de alta velocidad para computadora, coche, jardín, hogar, exterior, inalámbrico, ventilador de</t>
+          <t>Walker's Orejeras</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>B0D9W3RVLZ</t>
+          <t>B01AAH8CMA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>65.98999999999999</v>
+        <v>38.83</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1867,40 +1865,42 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>4 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>73509</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71zUdOGVUcL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61vpMEEn3qL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Cargador-iPhone-paquete-Lightning-compatible/dp/B0CN6GHGD6/ref=sr_1_29?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-29</t>
+          <t>https://www.amazon.com/-/es/inal%C3%A1mbrico-impermeable-reproducci%C3%B3n-emparejamiento-dispositivos/dp/B0BRKPVZB4/ref=sr_1_30?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cargador para iPhone de carga rápida, paquete de 20 W, PD USB C, bloque de carga rápida de pared con cable USB C a Lightning de 6 y 10 pies compatible con iPhone 14 Pro Max/13 Pro Max/12 Pro</t>
+          <t>Altavoz Bluetooth con sonido HD, inalámbrico portátil, IPX5 impermeable, hasta 24 horas de reproducción, emparejamiento TWS, BT5.3, para el hogar, fiesta, al aire libre/playa, dispositivos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B0CN6GHGD6</t>
+          <t>B0BRKPVZB4</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8.449999999999999</v>
+        <v>19.99</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1909,42 +1909,42 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9 K+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>4.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2738</v>
+        <v>14384</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61TAL-PGlQL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81djh1gfUwL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Texas-Instruments-TI-Nspire-CAS-Calculadora/dp/B07RL7HM5V/ref=sr_1_30?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-30</t>
+          <t>https://www.amazon.com/-/es/Frameo-pulgadas-electr%C3%B3nico-rotaci%C3%B3n-autom%C3%A1tica/dp/B088NHSVJN/ref=sr_1_31?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Texas Instruments TI-Nspire CX II CAS - Calculadora graficadora a color con software para estudiantes (PC/Mac)</t>
+          <t>Frameo - Marco de fotos digital WiFi de 10.1 pulgadas, 1280 x 800 HD IPS, marco de fotos electrónico, 32 GB de memoria, rotación automática, montaje en pared, comparte fotos/videos al instante a</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B07RL7HM5V</t>
+          <t>B088NHSVJN</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>155.64</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1953,42 +1953,42 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>9 K+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
-        <v>8329</v>
+        <v>4373</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/716dh-uOaqL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61O+aorCp0L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Kakyanill-protecci%C3%B3n-sobretensiones-extensi%C3%B3n-estaci%C3%B3n/dp/B0D5D6Q8B7/ref=sr_1_31?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-31</t>
+          <t>https://www.amazon.com/-/es/Bluetooth-resistente-reproducci%C3%B3n-PartyBoost-exteriores/dp/B09GJZKQ3K/ref=sr_1_32?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-32</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cubo de regleta con puertos USB, protección contra sobretensiones de 900 julios, cable de extensión de enchufe plano de 5 pies, 3 salidas de CA, 3 puertos USB (2 USB C), estación de carga de</t>
+          <t>JBL Flip 6- Altavoz Bluetooth portátil, sonido potente, graves profundos, resistente al agua IPX7, 12 hs de reproducción, PartyBoost p/emparejar múltiples altavoces; p/hogar, exteriores, viajes (azul)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B0D5D6Q8B7</t>
+          <t>B09GJZKQ3K</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>12.99</v>
+        <v>129.95</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1997,42 +1997,42 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H36" t="n">
-        <v>36</v>
+        <v>16733</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61fygeWUEZL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/614f5R8ReXL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/autom%C3%B3vil-salpicadero-parabrisas-ventilaci%C3%B3n-tel%C3%A9fonos/dp/B0D6R7ZR5P/ref=sr_1_32?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-32</t>
+          <t>https://www.amazon.com/-/es/pulgadas-incluido-duraci%C3%B3n-almacenamiento-ampliable/dp/B0CWS7W8Q1/ref=sr_1_33?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-33</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Soporte de teléfono 3 en 1 mejorado para automóvil [potente succión] Soporte de teléfono para salpicadero de automóvil, parabrisas de ventilación de aire, para todos los teléfonos iPhone y</t>
+          <t>SAMSUNG Galaxy Tab S6 Lite (2024) Tableta Android WiFi de 10.4 pulgadas, 64 GB, S Pen incluido, listo para jugar, batería de larga duración, diseño delgado de metal, almacenamiento ampliable, versión</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B0D6R7ZR5P</t>
+          <t>B0CWS7W8Q1</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>13.99</v>
+        <v>229.99</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2041,43 +2041,41 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7 K+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H37" t="n">
-        <v>4015</v>
+        <v>704</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71O2w5u9ECL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61QfSvAihfL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/destornilladores-herramientas-reparaci%C3%B3n-profesional-computadora/dp/B0CBTYZY2S/ref=sr_1_33?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-33</t>
+          <t>https://www.amazon.com/-/es/generaci%C3%B3n-Smartwatch-Starlight-deportiva-Rastreador/dp/B0CHX6VPP5/ref=sr_1_34?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-34</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AXTH Juego de destornilladores de precisión pequeños 25 en 1, kit de herramientas de reparación magnética profesional para teléfono, computadora, reloj, laptop, Macbook, consola de juegos, lentes,</t>
+          <t>Apple Watch SE (2ª generación) [GPS + celular de 1.575 pulgadas] Smartwatch con caja de aluminio Starlight con correa deportiva Starlight S/M. Rastreador de fitness y sueño, detección de choques,</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B0CBTYZY2S</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>7.99</v>
-      </c>
+          <t>B0CHX6VPP5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2085,41 +2083,43 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6 K+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H38" t="n">
-        <v>1061</v>
+        <v>1094</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71nTeoleWWL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61lR-ZcprXL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>6000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Beats-Solo-Auriculares-inal%C3%A1mbricos-compatibles/dp/B0CZPHPJLN/ref=sr_1_34?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-34</t>
+          <t>https://www.amazon.com/-/es/Encendedor-electr%C3%B3nico-resistente-recargable-champ%C3%A1n/dp/B07D6LX9ZP/ref=sr_1_35?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-35</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Beats Solo 4 - Auriculares inalámbricos Bluetooth en la oreja, compatibles con Apple y Android, hasta 50 horas de duración de la batería, color azul pizarra</t>
+          <t>REIDEA Encendedor electrónico de vela de arco, resistente al viento, sin llama, recargable por USB, con botón seguro para el hogar, cocina, champán dorado</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B0CZPHPJLN</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>B07D6LX9ZP</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>9.99</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2134,11 +2134,11 @@
         <v>4.5</v>
       </c>
       <c r="H39" t="n">
-        <v>1377</v>
+        <v>36490</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/510fGxoTsTL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51gjfQU2M6L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2148,17 +2148,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/magn%C3%A9tico-cargador-port%C3%A1til-inal%C3%A1mbrico-compatible/dp/B0C58MS6HF/ref=sr_1_35?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-35</t>
+          <t>https://www.amazon.com/-/es/Beats-Solo-Auriculares-inal%C3%A1mbricos-compatibles/dp/B0CZPHPJLN/ref=sr_1_36?dib=eyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759533&amp;sr=8-36</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Anker Banco de energía magnético de 10,000 mAh, cargador portátil inalámbrico, batería de carga rápida de 20 W con USB-C, compatible con MagSafe, iPhone 15/15 Plus/15 Pro/15 Pro Max, iPhone 14/13/12</t>
+          <t>Beats Solo 4 - Auriculares inalámbricos Bluetooth en la oreja, compatibles con Apple y Android, hasta 50 horas de duración de la batería, color azul pizarra</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>B0C58MS6HF</t>
+          <t>B0CZPHPJLN</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2169,41 +2169,43 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>8720</v>
+        <v>1500</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61vlc2fDKRL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/510fGxoTsTL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HDHSPAZAA-Nintendo-Switch-Lite-Coral/dp/B084Y3VVNG/ref=sr_1_36?dib=eyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876213&amp;sr=8-36</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4OTYzNDc0NDAyNTc2MzYyOjE3MjY3NTk1MzM6c3BfYnRmOjMwMDA5MTI2NzE1NjQwMjo6MDo6&amp;url=%2Fdigital-pantalla-t%25C3%25A1ctil-pulgadas-memoria%2Fdp%2FB0BLXX4Y7T%2Fref%3Dsr_1_37_sspa%3Fdib%3DeyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759533%26sr%3D8-37-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nintendo Switch Lite - Coral</t>
+          <t>KODAK Marco de fotos digital WiFi, 1920 x 1200 HD, pantalla táctil, marco de fotos digital digital de 10.1 pulgadas con memoria de 32 GB</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B084Y3VVNG</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>B0BLXX4Y7T</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>149.99</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2211,18 +2213,18 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Calificación de la ESRB: Everyone</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H41" t="n">
-        <v>56119</v>
+        <v>142</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51a34cWPBhL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71hvQO7tT0L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2230,21 +2232,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1ODgxMTg0NjA3MTY0OTkxOjE3MjU4NzYyMTM6c3BfYnRmOjMwMDE2NjE2NjQ2MzQwMjo6MDo6&amp;url=%2FS306S-20-2L-Ampliaci%25C3%25B3n-delantera-microscopio-iluminaci%25C3%25B3n%2Fdp%2FB08L69G45P%2Fref%3Dsr_1_37_sspa%3Fdib%3DeyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876213%26sr%3D8-37-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4OTYzNDc0NDAyNTc2MzYyOjE3MjY3NTk1MzM6c3BfYnRmOjMwMDQwMTgxNzk2ODUwMjo6MDo6&amp;url=%2FDispositivo-traductor-instant%25C3%25A1neo-traducci%25C3%25B3n-bidireccional%2Fdp%2FB0D57XM3DT%2Fref%3Dsr_1_38_sspa%3Fdib%3DeyJ2IjoiMSJ9.JUyrC0rDBJXlXuBl8BASILiw3ItEAANOHsRHxUg00A16X54Giq2U4UxUexYKF-e45byukIrkIZouTN23eWppgareUELr-0P8N6J5xdrmTt-lSYFPKKZBclIQwVF5B_Gw_2OUh0pEzBb8ijpKNvahGE5nYwpRdidxUEaIToDPOCHk78sKYcL9ORderTpssosHOq1OEfAwL9Psmxa8a-bipimT3i1guzssf9WpvDlOg9Q.VBwEZ5W4IwHGy9LwXOkSRaqA68eKJOAE61RtWomjNC8%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759533%26sr%3D8-38-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Swift S306S-20-2L 20X/40X/80X Ampliación delantera montada 360° microscopio estéreo binocular giratorio, oculares de campo ancho 10X y 20X, iluminación LED superior e inferior, placa de escenario</t>
+          <t>Dispositivo traductor de idiomas, traductor de voz instantáneo para 60 idiomas con 96% de precisión, 5.05 pulgadas, traducción cara a cara, traductor sin conexión con 18 pares, traductor bidireccional</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B08L69G45P</t>
+          <t>B0D57XM3DT</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>229.99</v>
+        <v>399.99</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2253,40 +2255,42 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H42" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61uw+xGsKJL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61Etf0WFT7L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1ODgxMTg0NjA3MTY0OTkxOjE3MjU4NzYyMTM6c3BfYnRmOjMwMDM2MDE5MzkzNDIwMjo6MDo6&amp;url=%2Fpulgadas-pantalla-autom%25C3%25A1tica-presentaci%25C3%25B3n-diapositivas%2Fdp%2FB0D9W394Q7%2Fref%3Dsr_1_38_sspa%3Fdib%3DeyJ2IjoiMSJ9.5D-H1ycj2qj_vN1oNeCbtLc8sebgpihsw6vSmNH9BR-GbC4mXVjZndtV5dfcKDgZbburofSi2EgBvOl_MgRSIacviCjVIaS_RpuzVsu3xG02Jt5ZnLwrrfKjjzgAk3tr05mo5sKj9qRPRhANcUzl53WhtNH5UksEVVQyTNbr6EQjBUpz8apYs3Z4FAYBnD4Kew-9n1_E6-amlpKZJ2RGx44Ol7CN3G5VT_DNPCLJz6g.6kp3XyBJVeV6AXPdiF4k8NNfwWXt-sFEqus68ygXYVc%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876213%26sr%3D8-38-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNTU4NzIzMTEwOTQyMjg1OjE3MjY3NTk1NDI6c3BfYXRmX25leHQ6MzAwMTkwNDg1MTg0NTAyOjowOjo&amp;url=%2FLorex-Grabadora-digital-Fusion-canales%2Fdp%2FB0BSKCPLNC%2Fref%3Dsr_1_33_sspa%3Fdib%3DeyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759542%26sr%3D8-33-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>THOMSON Marco de fotos digital de 10.1 pulgadas, marco de fotos digital WiFi con 32 GB, pantalla táctil IPS HD de 1280 x 800, rotación automática, presentación de diapositivas, comparte fotos/videos</t>
+          <t>Lorex Grabadora de video digital Fusion 4K de 12 canales (8 con cable y 4 Wi-Fi) de 2 TB</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B0D9W394Q7</t>
+          <t>B0BSKCPLNC</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>85.98999999999999</v>
+        <v>249.99</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2295,40 +2299,42 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71QMgIG0rIL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71NVBVszd6L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3NzkyMTEwMjczNDAzODc5OjE3MjU4NzYyMjQ6c3BfYXRmX25leHQ6MjAwMDM3NDMyMDU3MjcxOjowOjo&amp;url=%2Ftornillo-blindado-conector-extensor-izquierdo%2Fdp%2FB08D3CLVY8%2Fref%3Dsr_1_33_sspa%3Fdib%3DeyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876223%26sr%3D8-33-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/GoPro-HERO12-Black-impermeable-estabilizaci%C3%B3n/dp/B0CZMG5L6X/ref=sr_1_35?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-35</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Montaje en panel RJ45, RJ45 macho a hembra de 90 grados de montaje en panel de tornillo CAT6/5e/5 blindado de red LAN conector de cable extensor (ángulo izquierdo)</t>
+          <t>GoPro HERO12 Black - Cámara de acción impermeable con video Ultra HD de 5.3K60, fotos de 27 MP, HDR, sensor de imagen de 1/1.9 pulgadas, transmisión en vivo, cámara web, estabilización</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>B08D3CLVY8</t>
+          <t>B0CZMG5L6X</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6.99</v>
+        <v>349</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2337,41 +2343,41 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H44" t="n">
-        <v>27</v>
+        <v>485</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61tJuj38U1L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71p5V8+OnfL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Interruptor-inteligente-Wi-Fi-Kasa-TP-Link/dp/B01EZV35QU/ref=sr_1_35?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-35</t>
+          <t>https://www.amazon.com/-/es/inteligente-medianoche-deportiva-rastreador-aplicaciones/dp/B0CSTFHP3W/ref=sr_1_36?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-36</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Interruptor de luz inteligente Wi-Fi de Kasa por TP-Link – Control de iluminación desde cualquier lugar, fácil instalación en la pared (sólo polo), no requiere concentrador, funciona con Alexa y Google Assistant (HS200)</t>
+          <t>Apple Reloj inteligente de la serie 9 [GPS 1.772 in] con caja de aluminio medianoche con correa deportiva de medianoche M/L. rastreador de fitness, aplicaciones de ECG, pantalla Retina siempre</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B01EZV35QU</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>12.99</v>
-      </c>
+          <t>B0CSTFHP3W</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2379,42 +2385,42 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6 K+ comprados el mes pasado</t>
+          <t>5 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H45" t="n">
-        <v>40410</v>
+        <v>6477</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611JGGx4DPL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71OSc6IfGcL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Sony-SRS-XG300-inal%C3%A1mbrico-Bluetooth-impermeable/dp/B0B43Y8GHZ/ref=sr_1_36?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-36</t>
+          <t>https://www.amazon.com/-/es/organizadora-organizador-electr%C3%B3nicos-accesorios-tecnol%C3%B3gicas/dp/B0C1NB75GJ/ref=sr_1_37?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-37</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sony SRS-XG300 X Series - Altavoz inalámbrico portátil Bluetooth para fiesta, impermeable y a prueba de polvo con batería de 25 horas y mango retráctil, color negro</t>
+          <t>MATEIN Bolsa organizadora de cables, organizador grande de artículos electrónicos, estuche de viaje para accesorios electrónicos, bolsas tecnológicas portátiles de doble capa a prueba de golpes para</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>B0B43Y8GHZ</t>
+          <t>B0C1NB75GJ</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>198</v>
+        <v>39.99</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2427,14 +2433,14 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H46" t="n">
-        <v>1738</v>
+        <v>1273</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61wLLPUu+4L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71M7KkGEQjL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2444,20 +2450,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/generaci%C3%B3n-Smartwatch-Starlight-deportiva-Rastreador/dp/B0CHX6VPP5/ref=sr_1_37?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-37</t>
+          <t>https://www.amazon.com/-/es/Texas-Instruments-TI-Nspire-CAS-Calculadora/dp/B07RL7HM5V/ref=sr_1_38?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-38</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apple Watch SE (2ª generación) [GPS + celular de 1.575 pulgadas] Smartwatch con caja de aluminio Starlight con correa deportiva Starlight S/M. Rastreador de fitness y sueño, detección de choques,</t>
+          <t>Texas Instruments TI-Nspire CX II CAS - Calculadora graficadora a color con software para estudiantes (PC/Mac)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>B0CHX6VPP5</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>B07RL7HM5V</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>168.99</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2465,41 +2473,43 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>8 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H47" t="n">
-        <v>1247</v>
+        <v>8354</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61lR-ZcprXL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/716dh-uOaqL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/generaci%C3%B3n-Smartwatch-medianoche-medianoche-frecuencia/dp/B0CHXCXKPD/ref=sr_1_38?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-38</t>
+          <t>https://www.amazon.com/-/es/Regleta-protectora-sobretensiones-extensor-extensi%C3%B3n/dp/B092J8LPWR/ref=sr_1_39?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-39</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple Watch SE (2ª generación) [GPS 1.575 in] Smartwatch con caja de aluminio medianoche con bucle deportivo de medianoche. Monitor de fitness y sueño, detección de choques, monitor de frecuencia</t>
+          <t>Regleta protectora de sobretensiones – 8 salidas con 4 puertos de carga USB (2 USB C), extensor de salida múltiple, cable de extensión trenzado de 5 pies, enchufe plano, montaje en pared, estación de</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>B0CHXCXKPD</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>B092J8LPWR</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>12.99</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2507,42 +2517,42 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H48" t="n">
-        <v>10047</v>
+        <v>43699</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/819CwRIckoL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61q9hmplGFL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Estimulador-electr%C3%B3nico-estimulador-entrenador-entrenamiento/dp/B0CJ91FDKQ/ref=sr_1_39?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-39</t>
+          <t>https://www.amazon.com/-/es/David-Baker-ebook/dp/B08PDXMPYJ/ref=sr_1_40?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-40</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Estimulador muscular electrónico, estimulador abdominal, tónico muscular, entrenador de máquina abdominal, equipo recargable por USB para todo el cuerpo, equipo de entrenamiento de fuerza para</t>
+          <t>A Degree in a Book: Electrical And Mechanical Engineering: Everything You Need to Know to Master the Subject - in One Book!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>B0CJ91FDKQ</t>
+          <t>B08PDXMPYJ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>39.95</v>
+        <v>0.99</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2551,43 +2561,39 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H49" t="n">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/615jp9lg6eL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>200</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81+I63qxrjL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/organizadora-organizador-electr%C3%B3nicos-accesorios-tecnol%C3%B3gicas/dp/B0C1NB75GJ/ref=sr_1_40?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-40</t>
+          <t>https://www.amazon.com/-/es/Sony-SRS-XG300-inal%C3%A1mbrico-Bluetooth-impermeable/dp/B0B43Y8GHZ/ref=sr_1_41?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-41</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MATEIN Bolsa organizadora de cables, organizador grande de artículos electrónicos, estuche de viaje para accesorios electrónicos, bolsas tecnológicas portátiles de doble capa a prueba de golpes para</t>
+          <t>Sony SRS-XG300 X Series - Altavoz inalámbrico portátil Bluetooth para fiesta, impermeable y a prueba de polvo con batería de 25 horas y mango retráctil, color negro</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>B0C1NB75GJ</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>29.99</v>
-      </c>
+          <t>B0B43Y8GHZ</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2599,14 +2605,14 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H50" t="n">
-        <v>1258</v>
+        <v>1748</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71M7KkGEQjL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61wLLPUu+4L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -2616,21 +2622,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Dispositivo-transmisi%C3%B3n-est%C3%A1ndar-controles-gratuita/dp/B0BCH5H2R3/ref=sr_1_41?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-41</t>
+          <t>https://www.amazon.com/-/es/Charles-Platt/dp/1680456873/ref=sr_1_42?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-42</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Roku Express | Dispositivo de transmisión HD Roku con control remoto estándar (sin controles de TV), TV gratuita y en vivo</t>
+          <t>Make: Electronics: Learning by Discovery: A hands-on primer for the new electronics enthusiast</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B0BCH5H2R3</t>
+          <t>1680456873</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>26.9</v>
+        <v>19.29</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2639,42 +2645,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>4.7</v>
       </c>
       <c r="H51" t="n">
-        <v>42033</v>
+        <v>555</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71bHZpw548L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>10000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71v+rxNWFEL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/pulgadas-electr%C3%B3nico-pantalla-almacenamiento-presentaci%C3%B3n/dp/B0CYZ7Q53D/ref=sr_1_42?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-42</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNTU4NzIzMTEwOTQyMjg1OjE3MjY3NTk1NDI6c3BfbXRmOjIwMDE3OTk1NTUzMzA5ODo6MDo6&amp;url=%2FAdaptador-corriente-universal-Compatible-certificado%2Fdp%2FB07N87W1DW%2Fref%3Dsr_1_43_sspa%3Fdib%3DeyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759542%26sr%3D8-43-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SAMMIX Marco de fotos digital, marco de fotos digital WiFi de 10.1 pulgadas, marco de fotos digital IPS HD, marco de fotos electrónico con pantalla táctil IPS HD, almacenamiento de 16 GB, presentación</t>
+          <t>Innergie 65C 65W USB Tipo C Adaptador de corriente universal para portátil PD 3.0 Compatible con iPhone 16/iPad/Switch/PC Laptop/MacBook Pro/Air-USB-C 7.5 ft Cable, UL &amp; IEC 62368-1 certificado (Delta</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>B0CYZ7Q53D</t>
+          <t>B07N87W1DW</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>49.99</v>
+        <v>39.99</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2683,42 +2687,40 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>1094</v>
+        <v>30</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71hjZqcoh3L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>1000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/51GdaZ6yEsL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3NzkyMTEwMjczNDAzODc5OjE3MjU4NzYyMjQ6c3BfbXRmOjMwMDIzODc3NDIzMDEwMjo6MDo6&amp;url=%2FDestornillador-destornilladores-inal%25C3%25A1mbricos-magn%25C3%25A9ticas-herramientas%2Fdp%2FB0D1CJ8X26%2Fref%3Dsr_1_43_sspa%3Fdib%3DeyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876223%26sr%3D8-43-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNTU4NzIzMTEwOTQyMjg1OjE3MjY3NTk1NDI6c3BfbXRmOjMwMDI4OTQyNjE1ODUwMjo6MDo6&amp;url=%2FArktronic-pulgadas-electr%25C3%25B3nico-compartir-aplicaci%25C3%25B3n%2Fdp%2FB0C54XYX4R%2Fref%3Dsr_1_44_sspa%3Fdib%3DeyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759542%26sr%3D8-44-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1%26smid%3DA7GB1ISH0EWNJ</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vastar Destornillador eléctrico, 152 en 1, juego de mini destornilladores de precisión inalámbricos con 119 puntas de precisión magnéticas, kit de herramientas de reparación portátil recargable con</t>
+          <t>Marco de fotos digital FHD extra grande de 17 pulgadas, marco de fotos digital, pantalla táctil, marco de fotos electrónico, fácil de compartir fotos/videos a través de la aplicación y</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>B0D1CJ8X26</t>
+          <t>B0C54XYX4R</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>36.77</v>
+        <v>179.99</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2727,42 +2729,40 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H53" t="n">
-        <v>32</v>
+        <v>732</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81Jw5yhPj0L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71-13qbVcvL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3NzkyMTEwMjczNDAzODc5OjE3MjU4NzYyMjQ6c3BfbXRmOjIwMDE3OTk1NTUzMzA5ODo6MDo6&amp;url=%2FAdaptador-corriente-universal-Compatible-certificado%2Fdp%2FB07N87W1DW%2Fref%3Dsr_1_44_sspa%3Fdib%3DeyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876223%26sr%3D8-44-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/STREBITO-destornilladores-herramientas-reparaci%C3%B3n-computadora/dp/B08SGM6F79/ref=sr_1_45?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-45</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Innergie 65C 65W USB Tipo C Adaptador de corriente universal para portátil PD 3.0 Compatible con iPhone 14/iPad/Switch/PC Laptop/MacBook Pro/Air-USB-C 7.5 ft Cable, UL &amp; IEC 62368-1 certificado (Delta</t>
+          <t>STREBITO - Juego de destornilladores de precisión de 142 piezas con kit de herramientas de reparación magnética de 120 puntas para iPhone, MacBook, computadora, laptop, PC, tableta, PS4, Xbox, Nintendo, consola de juegos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>B07N87W1DW</t>
+          <t>B08SGM6F79</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>39.99</v>
+        <v>27.99</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2771,40 +2771,42 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>6 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H54" t="n">
-        <v>30</v>
+        <v>14892</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51GdaZ6yEsL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81HGJ-wOEzL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/comprimido-inal%C3%A1mbrico-el%C3%A9ctrico-limpiador-velocidades/dp/B0CCD7KPM6/ref=sr_1_45?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-45</t>
+          <t>https://www.amazon.com/-/es/aspirador-trapeador-autom%C3%A1tica-mascotas-limpieza/dp/B0CT5FSTS2/ref=sr_1_46?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-46</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Plumero de aire comprimido 4.0, soplador de aire inalámbrico, plumero de aire eléctrico para limpieza de teclado y PC, kit de limpieza de aire, limpiador de plumero de 3 velocidades con luz LED, sin</t>
+          <t>Robot aspirador y trapeador, robot aspirador con Wi-Fi/APP, robot aspirador y trapeador de carga automática ultra delgado, ideal para suelos duros, pelo de mascotas y limpieza diaria</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>B0CCD7KPM6</t>
+          <t>B0CT5FSTS2</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25.99</v>
+        <v>235.98</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2813,42 +2815,42 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>700+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H55" t="n">
-        <v>1125</v>
+        <v>177</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71FhzBPCYkL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71lGNwAIl4L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/impermeable-inal%C3%A1mbrico-intermitentes-reproducci%C3%B3n-emparejamiento/dp/B09LLPSVBY/ref=sr_1_46?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-46</t>
+          <t>https://www.amazon.com/-/es/pulgadas-electr%C3%B3nico-pantalla-almacenamiento-presentaci%C3%B3n/dp/B0CYZ7Q53D/ref=sr_1_47?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-47</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Altavoz Bluetooth portátil, IPX7 impermeable altavoz inalámbrico con luces intermitentes coloridas, 25 W Super Bass 24 horas de reproducción, rango de 100 pies, emparejamiento TWS para exteriores,</t>
+          <t>SAMMIX Marco de fotos digital, marco de fotos digital WiFi de 10.1 pulgadas, marco de fotos digital IPS HD, marco de fotos electrónico con pantalla táctil IPS HD, almacenamiento de 16 GB, presentación</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>B09LLPSVBY</t>
+          <t>B0CYZ7Q53D</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>37.98</v>
+        <v>49.99</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2857,42 +2859,42 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3 K+ comprados el mes pasado</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G56" t="n">
         <v>4.5</v>
       </c>
       <c r="H56" t="n">
-        <v>9796</v>
+        <v>1102</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/816OdoKncpL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71hjZqcoh3L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/ARRL-Inc/dp/0872590828/ref=sr_1_47?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-47</t>
+          <t>https://www.amazon.com/-/es/Grabadora-aplicaciones-transcribir-potenciado-compatible/dp/B0CZX48H2Z/ref=sr_1_48?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-48</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Understanding Basic Electronics – A Step-by-Step Guide to Electricity, Electronics, and Simple Circuits</t>
+          <t>Grabadora de voz AI, grabadora de voz PLAUD Note con funda, control de aplicaciones, transcribir y resumir potenciado por ChatGPT, compatible con 59 idiomas, memoria de 64 GB, grabadora de audio para</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0872590828</t>
+          <t>B0CZX48H2Z</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>27.46</v>
+        <v>159</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2901,40 +2903,42 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>6 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H57" t="n">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61v03nxFXKL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61dtI36xJxL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Grabadora-reproducci%C3%B3n-dispositivo-transcripci%C3%B3n-conferencias/dp/B0D2W6L1YX/ref=sr_1_48?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-48</t>
+          <t>https://www.amazon.com/-/es/ARRL-Inc/dp/0872590828/ref=sr_1_49?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-49</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Grabadora de voz con reproducción, dispositivo de grabación de voz digital con transcripción a texto, grabadora de pantalla táctil de 2 pulgadas, grabadora de audio con zoom para conferencias,</t>
+          <t>Understanding Basic Electronics – A Step-by-Step Guide to Electricity, Electronics, and Simple Circuits</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>B0D2W6L1YX</t>
+          <t>0872590828</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>249.99</v>
+        <v>27.44</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2943,42 +2947,40 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="H58" t="n">
-        <v>55</v>
+        <v>513</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71WQfARoYWL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>200</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61v03nxFXKL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/SoundLink-port%C3%A1til-Bluetooth-impermeable-inal%C3%A1mbrico/dp/B099TLMRB6/ref=sr_1_49?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-49</t>
+          <t>https://www.amazon.com/-/es/mophie-Snap-inal%C3%A1mbrico-certificado-dispositivos/dp/B0CYMQ61XN/ref=sr_1_50?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-50</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Bose SoundLink Flex Altavoz portátil Bluetooth, altavoz impermeable inalámbrico para viajes al aire libre, color blanco</t>
+          <t>mophie Snap+ - Soporte de carga inalámbrico 3 en 1, certificado MagSafe y Qi2, compatible con iPhone 15/14/13/12, Apple Watch, AirPods, estación de carga magnética para múltiples dispositivos, diseño</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>B099TLMRB6</t>
+          <t>B0CYMQ61XN</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>149</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2987,42 +2989,42 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H59" t="n">
-        <v>34510</v>
+        <v>50</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Lp78GEMkL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61q6Sw3edhL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/almacenamiento-pulgadas-electr%C3%B3nico-Escritorio-autom%C3%A1tica/dp/B0C395VXJB/ref=sr_1_50?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-50</t>
+          <t>https://www.amazon.com/-/es/inal%C3%A1mbrico-abrazadera-autom%C3%A1tica-salpicadero-ventilaci%C3%B3n/dp/B0D31SDL6S/ref=sr_1_51?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-51</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Uhale Marco de fotos digital de 32 GB de almacenamiento de 10.1 pulgadas WiFi Marco de fotos electrónico Ranura para tarjeta SD Escritorio Pantalla táctil IPS Pantalla HD Rotación automática</t>
+          <t>CHGeek Soporte de teléfono inalámbrico para cargador de automóvil, carga rápida de 15 W, soporte de teléfono con abrazadera automática para tu salpicadero de automóvil, parabrisas, ventilación de</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>B0C395VXJB</t>
+          <t>B0D31SDL6S</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>69.98999999999999</v>
+        <v>22.39</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3031,42 +3033,42 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H60" t="n">
-        <v>1510</v>
+        <v>353</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/7143MFXjuzL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71k5W0SjQPL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/%C3%B3ptico-Pencil-rechazo-inclinaci%C3%B3n-minutos/dp/B0C8H6S9X3/ref=sr_1_51?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-51</t>
+          <t>https://www.amazon.com/-/es/Michael-Jay-Geier/dp/0071848290/ref=sr_1_52?dib=eyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759542&amp;sr=8-52</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Lápiz óptico para iPad, Apple Pencil con rechazo de palma e inclinación, carga rápida de 13 minutos, lápiz MEKO iPad para iPad 6-10, iPad Pro11/12.9"/M4, iPad Air3/4/5/M2, iPad Mini5/6</t>
+          <t>How to Diagnose and Fix Everything Electronic, Second Edition</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>B0C8H6S9X3</t>
+          <t>0071848290</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>14.39</v>
+        <v>19.96</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3075,42 +3077,40 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>8 K+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
-        <v>2820</v>
+        <v>2398</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51A3W8nLojL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>8000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71ixJbWsJzL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Jonathan-Bartlett/dp/1484259785/ref=sr_1_52?dib=eyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876223&amp;sr=8-52</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNTU4NzIzMTEwOTQyMjg1OjE3MjY3NTk1NDI6c3BfYnRmOjMwMDIyMzk5ODkxOTMwMjo6MDo6&amp;url=%2FLivingpai-inteligente-almacenamiento-electr%25C3%25B3nico-compartir%2Fdp%2FB0C8MXHPM9%2Fref%3Dsr_1_53_sspa%3Fdib%3DeyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759542%26sr%3D8-53-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Electronics for Beginners: A Practical Introduction to Schematics, Circuits, and Microcontrollers</t>
+          <t>Marco de fotos digital WiFi de 10.1 pulgadas, pantalla táctil, marco de fotos digital inteligente con almacenamiento de 16 GB, marco de fotos electrónico WiFi fácil de compartir fotos y</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1484259785</t>
+          <t>B0C8MXHPM9</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>35.99</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3119,40 +3119,42 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H62" t="n">
-        <v>302</v>
+        <v>86</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61m5va62tRL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71uq2NxGvgL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3NzkyMTEwMjczNDAzODc5OjE3MjU4NzYyMjQ6c3BfYnRmOjMwMDQwMTgxNzk2ODUwMjo6MDo6&amp;url=%2FDispositivo-traductor-instant%25C3%25A1neo-traducci%25C3%25B3n-bidireccional%2Fdp%2FB0D57XM3DT%2Fref%3Dsr_1_53_sspa%3Fdib%3DeyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876223%26sr%3D8-53-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNTU4NzIzMTEwOTQyMjg1OjE3MjY3NTk1NDI6c3BfYnRmOjMwMDM3MTMzOTYxOTQwMjo6MDo6&amp;url=%2Fpulgadas-pantalla-programable-encendido-autom%25C3%25A1tico%2Fdp%2FB0CYSH1X3V%2Fref%3Dsr_1_54_sspa%3Fdib%3DeyJ2IjoiMSJ9.DvFNl20OLLTOC49OOOwERyI693bg0s5G7PDvHRH9csfD8LPXdr3zQG7MCbIggJuDDva_-qmFLgYCCcA1Iyg4cr7fnbF60kVeFlwsHVA1EjLF0wT0-A7wDejvEeBEOwZSc7Fpo2IO7qAUdiTmZn4RtJTUdmu3LQyjI1JBr0cBTBpoWDXon2PiGJNvEytykLzqvU3O2HAuxXq7qtzWHuxfi9nNiJzWNVUffvfCubhCbOI.Ci08kGyD-zT6Hl6l6jDtYTUrCE8EvGjJLTmP-DcuZP0%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759542%26sr%3D8-54-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dispositivo traductor de idiomas, traductor de voz instantáneo para 60 idiomas con 96% de precisión, 5.05 pulgadas, traducción cara a cara, traductor sin conexión con 18 pares, traductor bidireccional</t>
+          <t>KODAK Marco de fotos digital con control remoto, marco de fotos digital de 10.1 pulgadas con pantalla táctil IPS HD de 1280 x 800, montaje en pared, programable encendido/apagado automático, sin WiFi</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>B0D57XM3DT</t>
+          <t>B0CYSH1X3V</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>399.99</v>
+        <v>59.99</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3165,14 +3167,14 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61Etf0WFT7L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71Yz+il+POL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3180,21 +3182,21 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3NzkyMTEwMjczNDAzODc5OjE3MjU4NzYyMjQ6c3BfYnRmOjMwMDM0OTc1MzUyMjYwMjo6MDo6&amp;url=%2FTelescopio-telescopio-telescopios-refractores-principiantes%2Fdp%2FB0D7LQ67MX%2Fref%3Dsr_1_54_sspa%3Fdib%3DeyJ2IjoiMSJ9.7LJTE_7TpTbAvO3pXi4wT9NZSyP3gQlVV1-jsWsxX2jFzrmastaut-pTp2XUdubkQYaU_T3NoMoeamqra00sNuHg6Ik9flayuPAgF_boqmgleWrLEcS3d3IaDY8r9DkzRyxuyuzkIUXuZJlVrTMk089al_h5XvuDcbuqCilZxBjpDQMsgc90tYw1QTbbuGH7PmEayLjfYY7TXTYcr9N6gJuSiPyAY4tn_kBH-Gq1bPs.pqsOebOiC9600TUIbqksZRy7p0FMeVvXFnFiNXwDYAI%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876223%26sr%3D8-54-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NzI1MTA0NzEwMzEwNjM4OjE3MjY3NTk1NTI6c3BfYXRmX25leHQ6MzAwNDI1NjMxMTI2MzAyOjowOjo&amp;url=%2Fdp%2FB01D1N3S9W%2Fref%3Dsr_1_49_sspa%3Fdib%3DeyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759551%26sr%3D8-49-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Telescopio, telescopio para adultos y niños, 2.756 in de apertura, 15.748 in, telescopios refractores portátiles para principiantes de astronomía, telescopios de viaje AZ Mount Óptica</t>
+          <t>CAT6 Plenum Cable 1000ft (CMP) | Bulk Ethernet Cable 1000ft | 23 AWG, 550MHz 4Pair UTP 1GB Internet Cable | Quality Tested Ideal for Networking &amp; Stable Performance (Red)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>B0D7LQ67MX</t>
+          <t>B01D1N3S9W</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>79.98999999999999</v>
+        <v>128.99</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3203,18 +3205,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>(
+US$0.13
+US$0.13/Foot)</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71xJQE2v8uL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/714IU8i87cL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3222,21 +3226,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3ODg2NzIxMzI3MzI1NzE4OjE3MjU4NzYyMzQ6c3BfYXRmX25leHQ6MzAwMjcyMjM3NDY2MTAyOjowOjo&amp;url=%2FAuriculares-micr%25C3%25B3fono-cancelaci%25C3%25B3n-auriculares-compatibles%2Fdp%2FB0D3PPFLCT%2Fref%3Dsr_1_49_sspa%3Fdib%3DeyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876234%26sr%3D8-49-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NzI1MTA0NzEwMzEwNjM4OjE3MjY3NTk1NTI6c3BfYXRmX25leHQ6MzAwMzM2MzQzMzA0OTAyOjowOjo&amp;url=%2FInnergie-Adaptador-corriente-universal-convertidor%2Fdp%2FB0D927FWZV%2Fref%3Dsr_1_50_sspa%3Fdib%3DeyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759551%26sr%3D8-50-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Auriculares de teléfono de 0.098 in con micrófono con cancelación de ruido y controles de volumen, auriculares de teléfono de oficina para centro de llamadas compatibles con Panasonic VTech AT&amp;T</t>
+          <t>Innergie Adaptador de corriente universal T6 de 65 W para portátil con cable convertidor C de 100 W - Compatible con la mayoría de marcas de portátiles y dispositivos USB-C. (Delta Electronics)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>B0D3PPFLCT</t>
+          <t>B0D927FWZV</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>23.99</v>
+        <v>49.99</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3249,14 +3253,14 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61rU33FjpcL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/618oxeM+ofL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3264,21 +3268,21 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3ODg2NzIxMzI3MzI1NzE4OjE3MjU4NzYyMzQ6c3BfYXRmX25leHQ6MzAwMjAwMjQwNzE1OTAyOjowOjo&amp;url=%2FAcoplador-Keystone-conectores-conexiones-acoplador%2Fdp%2FB0D22R75VC%2Fref%3Dsr_1_50_sspa%3Fdib%3DeyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876234%26sr%3D8-50-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/m%C3%BAltiples-dispositivos-organizador-concentrador-multipuerto/dp/B0B48MRJK4/ref=sr_1_51?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-51</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Acoplador Keystone CAT6 RJ45 (paquete de 24), conector Keystone Cat6 hembra a hembra, conectores Keystone en línea Cat 6 para placa de pared y panel de conexiones, acoplador Ethernet RJ45</t>
+          <t>Cargador USB Upoy, estación de carga para múltiples dispositivos de 45 W, bloques de carga rápida con puertos dobles tipo C, organizador de concentrador de carga USB multipuerto para iPhone, iPad,</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>B0D22R75VC</t>
+          <t>B0B48MRJK4</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>11.49</v>
+        <v>14.99</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3287,42 +3291,42 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H66" t="n">
-        <v>18</v>
+        <v>2202</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61LrEDnT9tL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51L-QLlkeSL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Charles-Platt/dp/1680456873/ref=sr_1_51?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-51</t>
+          <t>https://www.amazon.com/-/es/Walkers-GWP-RSEMPAT-ODG-Orejeras-caza/dp/B01N0WEFQ8/ref=sr_1_52?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-52</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Make: Electronics: Learning by Discovery: A hands-on primer for the new electronics enthusiast</t>
+          <t>Walker's GWP-RSEMPAT-ODG GWP-RSEMPAT-ODG Orejeras de caza</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1680456873</t>
+          <t>B01N0WEFQ8</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>19.29</v>
+        <v>42.99</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3331,40 +3335,42 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H67" t="n">
-        <v>553</v>
+        <v>5951</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71v+rxNWFEL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/51iLCi4AwVL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Auriculares-inal%C3%A1mbricos-auriculares-cancelaci%C3%B3n-reproducci%C3%B3n/dp/B0DBVPHLKK/ref=sr_1_52?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-52</t>
+          <t>https://www.amazon.com/-/es/Magcubic-Keystone-proyector-Projector-operativo/dp/B0D5XPM2ZC/ref=sr_1_53?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-53</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Auriculares inalámbricos, Bluetooth 5.3, graves estéreo, auriculares con micrófono con cancelación de ruido, pantalla LED, IP7 impermeable en los oídos, tiempo de reproducción de 36 horas para laptop,</t>
+          <t>Auto Keystone Mini proyector portátil, 4K/260 ANSI Smart Projector con WiFi 6 BT 5.0, ajuste de pantalla, rotación de 180 grados, proyector de video casero con sistema operativo Android 11.0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>B0DBVPHLKK</t>
+          <t>B0D5XPM2ZC</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25.99</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3373,42 +3379,42 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
-        <v>201</v>
+        <v>5913</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71uRu2Ux8UL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51U87qXq3gL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/TEEHO-Cerradura-puerta-teclado-manija/dp/B0D3GFK5BL/ref=sr_1_53?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-53</t>
+          <t>https://www.amazon.com/-/es/Auriculares-inal%C3%A1mbricos-reproducci%C3%B3n-intrauditivos-impermeables/dp/B0D5HG7TC3/ref=sr_1_54?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-54</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TEEHO Cerradura de puerta con teclado con manija: cerradura de puerta de entrada sin llave con manija de palanca - Cerradura electrónica digital de puerta delantera - Cerradura de puerta codificada</t>
+          <t>Auriculares inalámbricos Bluetooth 5.3, reproducción de 40 horas, auriculares estéreo con pantalla LED, estuche de carga IPX7, auriculares intrauditivos impermeables con micrófono para teléfono,</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>B0D3GFK5BL</t>
+          <t>B0D5HG7TC3</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>69.98999999999999</v>
+        <v>17.98</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3417,42 +3423,42 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>9 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>337</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/618c9CLx20L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51pcU3wRmRL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Paul-Horowitz/dp/0521809266/ref=sr_1_54?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-54</t>
+          <t>https://www.amazon.com/-/es/Charles-Platt/dp/1449334180/ref=sr_1_55?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-55</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>The Art of Electronics</t>
+          <t>Encyclopedia of Electronic Components Volume 2: Leds, Lcds, Audio, Thyristors, Digital Logic, and Amplification</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0521809266</t>
+          <t>1449334180</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>100.38</v>
+        <v>17.99</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3468,11 +3474,11 @@
         <v>4.8</v>
       </c>
       <c r="H70" t="n">
-        <v>2028</v>
+        <v>661</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81rnDbZJibL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/91GlnDQ+fWL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3480,21 +3486,21 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Walkers-GWP-RSEMPAT-ODG-Orejeras-caza/dp/B01N0WEFQ8/ref=sr_1_55?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-55</t>
+          <t>https://www.amazon.com/-/es/autom%C3%B3vil-parabrisas-ventilaci%C3%B3n-universal-compatible/dp/B0CHS69JW3/ref=sr_1_56?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-56</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Walker's GWP-RSEMPAT-ODG GWP-RSEMPAT-ODG Orejeras de caza</t>
+          <t>Qifutan Soporte de teléfono para automóvil, soporte de teléfono para parabrisas de automóvil, ventilación de aire, universal, manos libres, soporte para teléfono celular, compatible con iPhone,</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>B01N0WEFQ8</t>
+          <t>B0CHS69JW3</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>43.59</v>
+        <v>9.49</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3503,42 +3509,42 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>9 K+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H71" t="n">
-        <v>5917</v>
+        <v>15858</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61X7tVxvqPL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71OjC2Gpb4L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/NOTABRICK-port%C3%A1tiles-inal%C3%A1mbrico-impermeable-emparejamiento/dp/B0D65YLZTX/ref=sr_1_56?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-56</t>
+          <t>https://www.amazon.com/-/es/Jonathan-Bartlett/dp/1484259785/ref=sr_1_57?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-57</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NOTABRICK Altavoces Bluetooth, altavoces portátiles de 15 W Bluetooth inalámbrico V5.0 con sonido estéreo, graves extra activos, altavoz de ducha impermeable IPX6, doble emparejamiento, para fiesta,</t>
+          <t>Electronics for Beginners: A Practical Introduction to Schematics, Circuits, and Microcontrollers</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>B0D65YLZTX</t>
+          <t>1484259785</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>49.99</v>
+        <v>35.99</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3547,42 +3553,40 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>8 K+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H72" t="n">
-        <v>2117</v>
+        <v>302</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81IDSYFjXzL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>8000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61m5va62tRL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Michael-Jay-Geier/dp/0071848290/ref=sr_1_57?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-57</t>
+          <t>https://www.amazon.com/-/es/interactiva-animales-electr%C3%B3nicas-virtuales-reaccionan/dp/B0BRQXKSCW/ref=sr_1_58?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-58</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>How to Diagnose and Fix Everything Electronic, Second Edition</t>
+          <t>Bitzee Mascota digital interactiva con estuche con 15 animales en el interior, mascotas electrónicas virtuales reaccionan al tacto, juguetes para niños para niñas y niños</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0071848290</t>
+          <t>B0BRQXKSCW</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>22.42</v>
+        <v>28.71</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3591,40 +3595,42 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>600+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G73" t="n">
         <v>4.5</v>
       </c>
       <c r="H73" t="n">
-        <v>2393</v>
+        <v>3511</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ixJbWsJzL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/716BajcQptL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/STREBITO-destornilladores-herramientas-reparaci%C3%B3n-computadora/dp/B08SGM6F79/ref=sr_1_58?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-58</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NzI1MTA0NzEwMzEwNjM4OjE3MjY3NTk1NTI6c3BfbXRmOjMwMDA5MTE3NjkxMTMwMjo6MDo6&amp;url=%2Fpulgadas-pantalla-inteligente-electr%25C3%25B3nico-autom%25C3%25A1tica%2Fdp%2FB0CGR615M8%2Fref%3Dsr_1_59_sspa%3Fdib%3DeyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759551%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>STREBITO - Juego de destornilladores de precisión de 142 piezas con kit de herramientas de reparación magnética de 120 puntas para iPhone, MacBook, computadora, laptop, PC, tableta, PS4, Xbox, Nintendo, consola de juegos</t>
+          <t>KODAK Marco de fotos digital WiFi de 10.1 pulgadas, pantalla táctil IPS HD de 1280 x 800, marco de fotos inteligente electrónico con memoria de 32 GB, rotación automática, comparte fotos y videos al</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>B08SGM6F79</t>
+          <t>B0CGR615M8</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>27.99</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3633,42 +3639,42 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>6 K+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H74" t="n">
-        <v>14833</v>
+        <v>142</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81HGJ-wOEzL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/717mAQmPbHL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>6000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3ODg2NzIxMzI3MzI1NzE4OjE3MjU4NzYyMzQ6c3BfbXRmOjMwMDA2MTY3MDgzNTMwMjo6MDo6&amp;url=%2Fdp%2FB0C4T3NTGP%2Fref%3Dsr_1_59_sspa%3Fdib%3DeyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876234%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NzI1MTA0NzEwMzEwNjM4OjE3MjY3NTk1NTI6c3BfbXRmOjMwMDAxMDE4OTI5OTcwMjo6MDo6&amp;url=%2Fdestornilladores-el%25C3%25A9ctricos-herramientas-electr%25C3%25B3nicas-magn%25C3%25A9ticas%2Fdp%2FB0C4XQ617S%2Fref%3Dsr_1_60_sspa%3Fdib%3DeyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759551%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Redodo 2000W Power Inverter, Pure Sine Wave Inverter 12V DC to 110V-120V, 18A Max. AC Outlets, LCD Monitor, Multiple Protection, AC Inverter for Home appliances, Electronics, RV, Truck, Solar Power</t>
+          <t>HOTO Juego de destornilladores eléctricos de precisión, kit de herramientas electrónicas 48 en 1, puntas magnéticas y caja, luz LED y 2 ajustes de torsión, mini juego de destornilladores para lentes,</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>B0C4T3NTGP</t>
+          <t>B0C4XQ617S</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>219.99</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3677,40 +3683,42 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H75" t="n">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61RoYakNagL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71a-EIF8h3L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3ODg2NzIxMzI3MzI1NzE4OjE3MjU4NzYyMzQ6c3BfbXRmOjMwMDE5ODcyNzg3NjcwMjo6MDo6&amp;url=%2FMarco-fotos-electr%25C3%25B3nico-grande-digital%2Fdp%2FB0C5RPJVQV%2Fref%3Dsr_1_60_sspa%3Fdib%3DeyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876234%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Reproductor-Bluetooth-reproductor-innioasis-pantalla/dp/B0C5T1JGRS/ref=sr_1_61?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-61</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Marco de fotos electrónico grande de 32 GB con marco de fotos digital - Marco de nube WiFi dual de 17 pulgadas, pantalla táctil FHD, función completa, rotación automática, compartir fotos video a</t>
+          <t>Reproductor de MP3 de 160 GB con Bluetooth y WiFi, reproductor de música innioasis con Spotify, Pandora, Amazon Music, pantalla táctil de 4 pulgadas, reproductor de MP3 Android para niños con Libby,</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>B0C5RPJVQV</t>
+          <t>B0C5T1JGRS</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>189.97</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3719,40 +3727,42 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
-        <v>72</v>
+        <v>1287</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71KHs7IIJPL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81kmJYoqHuL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Fulljion-comprimido-engranajes-inal%C3%A1mbrico-computadora/dp/B09V4L21G6/ref=sr_1_61?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-61</t>
+          <t>https://www.amazon.com/-/es/limpiador-pantalla-computadora-electr%C3%B3nico-microfibra/dp/B082XJJ8DS/ref=sr_1_62?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-62</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Plumero de aire comprimido, 3 engranajes a 51000 RPM, soplador de aire portátil con luz LED, 6000 mAh, plumero de aire inalámbrico recargable para teclado de computadora, carga rápida</t>
+          <t>Espray limpiador de pantalla (16 onzas), botella para limpieza de pantalla grande, limpiador de pantalla de TV, limpiador de pantalla de computadora, para laptop, teléfono, iPad, kit de limpieza de computadora, limpiador electrónico, paño de microfibra incluido</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>B09V4L21G6</t>
+          <t>B082XJJ8DS</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>39.99</v>
+        <v>19.97</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3761,28 +3771,28 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4 K+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H77" t="n">
-        <v>2201</v>
+        <v>29525</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61132+yEG9L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/710qcw3a9RL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Earl-Boysen/dp/1118217322/ref=sr_1_62?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-62</t>
+          <t>https://www.amazon.com/-/es/Earl-Boysen/dp/1118217322/ref=sr_1_63?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-63</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3824,21 +3834,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/McGraw-Hill-1259587541-herramientas-educaci%C3%B3n-manualidades/dp/1259587541/ref=sr_1_63?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-63</t>
+          <t>https://www.amazon.com/-/es/pulgadas-pantalla-rotaci%C3%B3n-autom%C3%A1tica-comparte/dp/B0CYZLWG1S/ref=sr_1_64?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-64</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>McGraw-Hill 1259587541 - Lote de 2 herramientas de educación para manualidades</t>
+          <t>Dragon Touch Marco de fotos digital WIFI de 10.1 pulgadas, pantalla táctil IPS HD de 1280 x 800 pulgadas, marco de fotos digital, rotación automática, comparte fotos/videos al instante a través de la</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1259587541</t>
+          <t>B0CYZLWG1S</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>41.8</v>
+        <v>44.79</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3847,40 +3857,42 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H79" t="n">
-        <v>2036</v>
+        <v>10333</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611a-HQvgVL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/712uVn8vstL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/MUSICOZY-Auriculares-Bluetooth-auriculares-inal%C3%A1mbricos/dp/B07TPLZY74/ref=sr_1_64?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-64</t>
+          <t>https://www.amazon.com/-/es/dp/B01BZCCF36/ref=sr_1_65?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-65</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MUSICOZY - Auriculares con Bluetooth, máscara con auriculares inalámbricos para dormir de lado, hombres y mujeres, oficina, siesta, viajes en avión, regalos únicos para niños y niñas</t>
+          <t>Circuit Engineering: The Beginner's Guide to Electronic Circuits, Semi-Conductors, Circuit Boards, and Basic Electronics</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>B07TPLZY74</t>
+          <t>B01BZCCF36</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>28.99</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3889,42 +3901,40 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
-        <v>17899</v>
+        <v>86</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71I03zlFz8L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>2000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81NBN-Tto+L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/CHIFENCHY-Bluetooth-cristalino-impermeable-reproducci%C3%B3n/dp/B0CX1FRR27/ref=sr_1_65?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-65</t>
+          <t>https://www.amazon.com/-/es/Fanttik-E1-Max-destornillador-destornilladores/dp/B0BGWRWRX2/ref=sr_1_66?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-66</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Altavoz Bluetooth portátil con luces, potente sonido cristalino, IPX5 impermeable, reproducción durante todo el día, entrada de tarjeta AUX y TF, Bluetooth 5.3, Paring TWS, pequeño altavoz</t>
+          <t>Fanttik E1 Max - Mini destornillador eléctrico de 3.7 V, juego de destornilladores de precisión, brocas magnéticas 50 en 1, almacenamiento magnético, hexagonal de 5/32 pulgadas, destornillador</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>B0CX1FRR27</t>
+          <t>B0BGWRWRX2</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>25.99</v>
+        <v>69.97</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3933,42 +3943,42 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>8 K+ comprados el mes pasado</t>
+          <t>6 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H81" t="n">
-        <v>715</v>
+        <v>2878</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81p9DPknjLL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61lCIdRKhIL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Forrest-M-Mims-III/dp/0945053282/ref=sr_1_66?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-66</t>
+          <t>https://www.amazon.com/-/es/comprimido-engranajes-inal%C3%A1mbrico-recargable-dispositivos/dp/B0D3CY4NTP/ref=sr_1_67?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-67</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Getting Started in Electronics</t>
+          <t>Plumero de aire comprimido, plumero eléctrico ajustable de 3 engranajes de 100000 RPM, soplador de aire inalámbrico recargable con luz LED para limpieza de dispositivos eléctricos del teclado de la</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0945053282</t>
+          <t>B0D3CY4NTP</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>17.96</v>
+        <v>29.99</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3977,40 +3987,42 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H82" t="n">
-        <v>713</v>
+        <v>413</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81rrQz6RojL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71xds7OlQvL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Reproductor-Bluetooth-reproductor-innioasis-pantalla/dp/B0C5T1JGRS/ref=sr_1_67?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-67</t>
+          <t>https://www.amazon.com/-/es/Paul-Horowitz/dp/0521809266/ref=sr_1_68?dib=eyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759551&amp;sr=8-68</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Reproductor de MP3 de 160 GB con Bluetooth y WiFi, reproductor de música innioasis con Spotify, Pandora, Amazon Music, pantalla táctil de 4 pulgadas, reproductor de MP3 Android para niños con Libby,</t>
+          <t>The Art of Electronics</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>B0C5T1JGRS</t>
+          <t>0521809266</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>89.98999999999999</v>
+        <v>104.99</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4019,42 +4031,40 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="H83" t="n">
-        <v>1256</v>
+        <v>2028</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81kmJYoqHuL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>500</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81rnDbZJibL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Oyvind-Nydal-Dahl/dp/1593277253/ref=sr_1_68?dib=eyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876234&amp;sr=8-68</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NzI1MTA0NzEwMzEwNjM4OjE3MjY3NTk1NTI6c3BfYnRmOjMwMDE1OTIwMjkyNDUwMjo6MDo6&amp;url=%2FECHOGEAR-movimiento-universal-televisores-instalaci%25C3%25B3n%2Fdp%2FB0BXQT2LPH%2Fref%3Dsr_1_69_sspa%3Fdib%3DeyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759551%26sr%3D8-69-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Electronics for Kids: Play with Simple Circuits and Experiment with Electricity!</t>
+          <t>ECHOGEAR Soporte de pared XL para TV de movimiento completo, soporte universal para televisores grandes de hasta 90 pulgadas, movimiento completo suave y fácil instalación en 3 pasos con interfaz de</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1593277253</t>
+          <t>B0BXQT2LPH</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>14.59</v>
+        <v>49.99</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4063,40 +4073,42 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H84" t="n">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91bY4ArIptL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61uTX5TFxKL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3ODg2NzIxMzI3MzI1NzE4OjE3MjU4NzYyMzQ6c3BfYnRmOjMwMDM5ODU3OTEzNzIwMjo6MDo6&amp;url=%2FCanupdog-autom%25C3%25A1tica-presentaci%25C3%25B3n-diapositivas-compartir%2Fdp%2FB0CTMQGF3G%2Fref%3Dsr_1_69_sspa%3Fdib%3DeyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876234%26sr%3D8-69-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NzI1MTA0NzEwMzEwNjM4OjE3MjY3NTk1NTI6c3BfYnRmOjMwMDA3NTIwMjIyNDIwMjo6MDo6&amp;url=%2FVIVITAR-pulgadas-pantalla-configuraci%25C3%25B3n-compartir%2Fdp%2FB0C5S2K2M2%2Fref%3Dsr_1_70_sspa%3Fdib%3DeyJ2IjoiMSJ9.rPD0Dzip7ms2ypkcgj6fmDIMzTSu_-dmoCalOzoFv4QpmFGWuw7PQKMYN28SbME54SY7fnLveKWZ_QND7Pf2YYRmxpLIXXuDjW6CNIvnN8_93AMwSNgTYMEqe-Dyk8k4XDEWcnAbFspaF1IwwSJJ0D3hRJ_Jor5DDrv-2x8Z2Nnnvle_yHuc8r4zPjUPdJAsl5TViXhkKW3FnwgIE2PjhItYbJX2bFU22GXaELVP3F4.Re_9Klo8txoIgRL8k_zWXDgS2vxP1wq6c-ghaIBVvk4%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759551%26sr%3D8-70-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Marco de fotos digital de 10.1 pulgadas, marco de fotos digital WiFi con pantalla táctil LCD IPS de 1280 x 800, rotación automática, presentación de diapositivas, para compartir fotos o</t>
+          <t>VIVITAR Marco de fotos digital WiFi de 10 pulgadas, diseño delgado con pantalla táctil LCD, fácil configuración para compartir fotos o videos con la nueva alerta de fotos, ranura para tarjeta de</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>B0CTMQGF3G</t>
+          <t>B0C5S2K2M2</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>68.98999999999999</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4105,42 +4117,40 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H85" t="n">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71anm2S5V5L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81OhndBvNLL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3ODg2NzIxMzI3MzI1NzE4OjE3MjU4NzYyMzQ6c3BfYnRmOjMwMDI1ODE2MjE5NDQwMjo6MDo6&amp;url=%2FLoop-pantalla-pulgadas-directamente-aplicaci%25C3%25B3n%2Fdp%2FB08VV4T9TR%2Fref%3Dsr_1_70_sspa%3Fdib%3DeyJ2IjoiMSJ9.wMoTToz3WaSHx7cIx4eGb4nGj1htvEo5N6Z9_Ct5C1_ka1hzJ1fHzOHl2FqrU_5eEeuQ3OxbnCiSyHUCTniUdbLfClCyVn5sJXnnmD9YgNbI-sKbN5gcHqNGM_bL7_kKAP5zcfkb9w8cEI1HwsJEn26r7dBOyqjHCLHBiD2COhetQELOEo_BTCIz2fbctL1sD47Zpe5tAO4d0PiCJb8T-Gn3wgMhrR4FeuNai1hGOgo.YkehqAJuynfzvloRdWE3QB-pPhdy0iHFg7dEo1hCeSg%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876234%26sr%3D8-70-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjQ5OTUxNDc2NDk0NTY3OjE3MjY3NTk1NjE6c3BfYXRmX25leHQ6MjAwMDk3NjkwNjI4Nzk4OjowOjo&amp;url=%2Fremanufacturado-capacidad-Versalink-106R03584-rendimiento%2Fdp%2FB07G8PG9B1%2Fref%3Dsr_1_65_sspa%3Fdib%3DeyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759561%26sr%3D8-65-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Loop Marco de fotos digital Wi-Fi con pantalla táctil, pantalla de 10 pulgadas, el único marco que ofrece fotos de mensajes de texto directamente al marco, aplicación fácil de usar, regalo para</t>
+          <t>Toner Pros [Cartucho de tóner remanufacturado de capacidad extra alta para Xerox Versalink 106R03584 (negro, rendimiento de páginas: 24,600 páginas) para impresoras Xerox Versalink B400,405DN</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>B08VV4T9TR</t>
+          <t>B07G8PG9B1</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4149,42 +4159,40 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H86" t="n">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81BKA5KVgNL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/51Fsy2ApMPL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNDEwMjA1MDY4NDUwNDoxNzI1ODc2MjQ2OnNwX2F0Zl9uZXh0OjMwMDM5OTU4OTE5MTMwMjo6MDo6&amp;url=%2FA3062%2Fdp%2FB0CZ8G716J%2Fref%3Dsr_1_65_sspa%3Fdib%3DeyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876246%26sr%3D8-65-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjQ5OTUxNDc2NDk0NTY3OjE3MjY3NTk1NjE6c3BfYXRmX25leHQ6MzAwMjAwMjQwNzE1OTAyOjowOjo&amp;url=%2FAcoplador-Keystone-conectores-conexiones-acoplador%2Fdp%2FB0D22R75VC%2Fref%3Dsr_1_66_sspa%3Fdib%3DeyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759561%26sr%3D8-66-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Soundcore Space One Pro by Anker, Adaptive Active Noise Cancelling Headphones Driven by 6 Mics, Super Foldable Design, 60H Lossless Audio, Ultra-Fast Charging, Hi-Res Wireless Audio, Comfortable Fit</t>
+          <t>Acoplador Keystone CAT6 RJ45 (paquete de 24), conector Keystone Cat6 hembra a hembra, conectores Keystone en línea Cat 6 para placa de pared y panel de conexiones, acoplador Ethernet RJ45</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>B0CZ8G716J</t>
+          <t>B0D22R75VC</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>199.99</v>
+        <v>9.99</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4193,42 +4201,42 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51hJse2o9eL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61LrEDnT9tL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNDEwMjA1MDY4NDUwNDoxNzI1ODc2MjQ2OnNwX2F0Zl9uZXh0OjMwMDM3MTMzOTYxOTQwMjo6MDo6&amp;url=%2Fpulgadas-pantalla-programable-encendido-autom%25C3%25A1tico%2Fdp%2FB0CYSH1X3V%2Fref%3Dsr_1_66_sspa%3Fdib%3DeyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876246%26sr%3D8-66-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Grabadora-reproducci%C3%B3n-dispositivo-transcripci%C3%B3n-conferencias/dp/B0D2W6L1YX/ref=sr_1_67?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-67</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KODAK Marco de fotos digital con control remoto, marco de fotos digital de 10.1 pulgadas con pantalla táctil IPS HD de 1280 x 800, montaje en pared, programable encendido/apagado automático, sin WiFi</t>
+          <t>Grabadora de voz con reproducción, dispositivo de grabación de voz digital con transcripción a texto, grabadora de pantalla táctil de 2 pulgadas, grabadora de audio con zoom para conferencias,</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>B0CYSH1X3V</t>
+          <t>B0D2W6L1YX</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>59.99</v>
+        <v>249.99</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4237,40 +4245,42 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H88" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Yz+il+POL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71WQfARoYWL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Dr-Phillip-M-Angelos/dp/B0CWRSZG8N/ref=sr_1_67?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-67</t>
+          <t>https://www.amazon.com/-/es/CHIFENCHY-Bluetooth-cristalino-impermeable-reproducci%C3%B3n/dp/B0CX1FRR27/ref=sr_1_68?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-68</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RF Electronics: Learn Radio Fast</t>
+          <t>Altavoz Bluetooth portátil con luces, potente sonido cristalino, IPX5 impermeable, reproducción durante todo el día, entrada de tarjeta AUX y TF, Bluetooth 5.3, Paring TWS, pequeño altavoz</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>B0CWRSZG8N</t>
+          <t>B0CX1FRR27</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.99</v>
+        <v>25.99</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4279,40 +4289,42 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>8 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>824</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61qxoPdlusL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81p9DPknjLL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>8000</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/%E3%80%90Actualizado%E3%80%91-retr%C3%A1ctil-autom%C3%B3vil-adaptador-compatible/dp/B0CYKPP2SM/ref=sr_1_68?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-68</t>
+          <t>https://www.amazon.com/-/es/Dispositivo-traductor-compatible-dispositivo-instant%C3%A1neo/dp/B0D2X589NF/ref=sr_1_69?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-69</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>【Actualizado】 Cargador retráctil SUPERONE 4 en 1, cargador de teléfono rápido para automóvil con cable de 2.6 pies, USB C y adaptador de cargador de automóvil Apple, compatible con iPhone 15/15 Pro</t>
+          <t>Dispositivo traductor de idiomas, compatible con 138 idiomas, dispositivo de traductor de idiomas sin conexión instantáneo, traductor de voz sin conexión, traductor de idiomas portátil de dos vías en</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>B0CYKPP2SM</t>
+          <t>B0D2X589NF</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>22.79</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4321,42 +4333,42 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H90" t="n">
-        <v>1408</v>
+        <v>735</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61Mc7-8q4sL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/617oz2tll0L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Doug-Lowe/dp/1119822114/ref=sr_1_69?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-69</t>
+          <t>https://www.amazon.com/-/es/McGraw-Hill-1259587541-herramientas-educaci%C3%B3n-manualidades/dp/1259587541/ref=sr_1_70?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-70</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Electronics All-in-One For Dummies</t>
+          <t>McGraw-Hill 1259587541 - Lote de 2 herramientas de educación para manualidades</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1119822114</t>
+          <t>1259587541</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>25.99</v>
+        <v>41.8</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4372,11 +4384,11 @@
         <v>4.7</v>
       </c>
       <c r="H91" t="n">
-        <v>156</v>
+        <v>2040</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81jiYIDvGVL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/611a-HQvgVL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4384,21 +4396,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Estaci%C3%B3n-mejorada-cargador-inal%C3%A1mbrico-magn%C3%A9tico/dp/B0D7W6HHPQ/ref=sr_1_70?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-70</t>
+          <t>https://www.amazon.com/-/es/integrada-exteriores-T2-inteligente-compatible/dp/B0D69M55YM/ref=sr_1_71?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-71</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Estación de carga 3 en 1 mejorada 2024 cargador inalámbrico magnético rápido de 15 W, viaje plegable para cargador MagSafe para iPhone 15/14/13/12 Pro Max Plus, iWatch 2 a 9/Ultra, AirPods Pro/3/2</t>
+          <t>[Sonido de JBL y batería integrada] Proyector para exteriores Yaber T2 con WiFi 6 y Bluetooth, proyector portátil de película inteligente Native 1080P para interior y exterior, compatible con TV</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>B0D7W6HHPQ</t>
+          <t>B0D69M55YM</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>39.99</v>
+        <v>269.99</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4407,42 +4419,42 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H92" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61GlrS41ozL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81zR4jHA++L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/ABLEGRID-corporal-inteligente-composici%C3%B3n-frecuencia/dp/B09W9JNQB6/ref=sr_1_71?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-71</t>
+          <t>https://www.amazon.com/-/es/Auriculares-inal%C3%A1mbricos-auriculares-cancelaci%C3%B3n-reproducci%C3%B3n/dp/B0DBVPHLKK/ref=sr_1_72?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-72</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ABLEGRID Báscula de grasa corporal, báscula de baño inteligente digital para peso corporal, pantalla LCD grande, 16 métricas de composición corporal IMC, peso de agua, frecuencia cardíaca, modo bebé,</t>
+          <t>Auriculares inalámbricos, auriculares Bluetooth 5.3 con graves estéreo, auriculares con micrófono con cancelación de ruido, pantalla LED, tiempo de reproducción de 36 horas para teléfonos,</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>B09W9JNQB6</t>
+          <t>B0DBVPHLKK</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>54.99</v>
+        <v>25.99</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4451,42 +4463,42 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>10 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H93" t="n">
-        <v>2262</v>
+        <v>295</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71kPER-27VL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71H5iGYWMlL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/herramientas-reparaci%C3%B3n-profesional-ultradelgadas-antiest%C3%A1ticas/dp/B015CMAJVK/ref=sr_1_72?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-72</t>
+          <t>https://www.amazon.com/-/es/electr%C3%B3nico-comprimido-el%C3%A9ctrico-limpiador-computadora/dp/B0BZGYG32B/ref=sr_1_73?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-73</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Kaisi kit de herramientas de reparación y pinzas abridores profesional, de acero, ultradelgadas, con spudgers de nailon y pinzas antiestáticas. Juego de herramientas de reparación de 20 unidades.</t>
+          <t>MECO ELEVERDE Plumero electrónico de aire comprimido, soplador de aire de 100000 RPM, plumero de aire eléctrico para limpiador de teclado de computadora, PC, oficina en casa, plumero de aire</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>B015CMAJVK</t>
+          <t>B0BZGYG32B</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>9.99</v>
+        <v>33.78</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4495,42 +4507,42 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H94" t="n">
-        <v>5220</v>
+        <v>712</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71sprpmhPVL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/717axPspfiL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/MiracleSpray-electr%C3%B3nica-multisuperficie-computadora-microfibra/dp/B07ZQPLCH8/ref=sr_1_73?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-73</t>
+          <t>https://www.amazon.com/-/es/Estimulador-electr%C3%B3nico-estimulador-entrenador-entrenamiento/dp/B0CJ91FDKQ/ref=sr_1_74?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-74</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MiracleSpray para limpieza electrónica, limpiador seguro multisuperficie para cualquier TV, teléfono, monitor, teclado, pantalla, computadora, incluye toalla de microfibra, kit de 16 onzas</t>
+          <t>Estimulador muscular electrónico, estimulador abdominal, tónico muscular, entrenador de máquina abdominal, equipo recargable por USB para todo el cuerpo, equipo de entrenamiento de fuerza para</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>B07ZQPLCH8</t>
+          <t>B0CJ91FDKQ</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>12.97</v>
+        <v>39.95</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4539,42 +4551,42 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>600+ comprados el mes pasado</t>
+          <t>300+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
-        <v>3956</v>
+        <v>197</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61sj38n0XzL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/615jp9lg6eL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Matein-Organizador-electr%C3%B3nicos-impermeable-accesorios/dp/B07PTP17LK/ref=sr_1_74?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-74</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjQ5OTUxNDc2NDk0NTY3OjE3MjY3NTk1NjE6c3BfbXRmOjMwMDQxNDYzMDg1ODAwMjo6MDo6&amp;url=%2FFCD-electr%25C3%25B3nico-conexi%25C3%25B3n-monomodo-Computadora%2Fdp%2FB0099S4MZI%2Fref%3Dsr_1_75_sspa%3Fdib%3DeyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759561%26sr%3D8-75-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1%26smid%3DA3KXHMB5SA7Q9Z</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Matein - Organizador de viaje para aparatos electrónicos, estuche impermeable para accesorios electrónicos, regalos portátiles de viaje para hombres, bolsa de doble capa para guardar cables, cargadores, memorias USB, teléfonos, Ipad Mini, negro</t>
+          <t>FCD - Cable electrónico de conexión de fibra LC LC OS2 2M | Puente monomodo dúplex 9/125 LC a LC de 6.6 ft (6.56 pies) | 0.04 oz 0.35 oz sfp 10gbase dx amarillo Zip-Cord PVC ofnr - Computadora</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>B07PTP17LK</t>
+          <t>B0099S4MZI</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>13.99</v>
+        <v>11.55</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4583,42 +4595,40 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H96" t="n">
-        <v>8864</v>
+        <v>361</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81KhJrQx1CL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>1000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/617es4r0+8L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNDEwMjA1MDY4NDUwNDoxNzI1ODc2MjQ2OnNwX210ZjozMDAwMTAxODkyOTk3MDI6OjA6Og&amp;url=%2Fdestornilladores-el%25C3%25A9ctricos-herramientas-electr%25C3%25B3nicas-magn%25C3%25A9ticas%2Fdp%2FB0C4XQ617S%2Fref%3Dsr_1_75_sspa%3Fdib%3DeyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876246%26sr%3D8-75-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjQ5OTUxNDc2NDk0NTY3OjE3MjY3NTk1NjE6c3BfbXRmOjMwMDE2MDAwNzA3MDgwMjo6MDo6&amp;url=%2Felectr%25C3%25B3nico-pulgadas-inteligente-pantalla-autom%25C3%25A1tica%2Fdp%2FB0CQ4T6S54%2Fref%3Dsr_1_76_sspa%3Fdib%3DeyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759561%26sr%3D8-76-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HOTO Juego de destornilladores eléctricos de precisión, kit de herramientas electrónicas 48 en 1, puntas magnéticas y caja, luz LED y 2 ajustes de torsión, mini juego de destornilladores para lentes,</t>
+          <t>Marco de fotos digital grande de 32 GB, marco de fotos digital electrónico de 17 pulgadas, marco de fotos digital inteligente con WiFi doble, pantalla táctil IPS, rotación automática, fácil de</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>B0C4XQ617S</t>
+          <t>B0CQ4T6S54</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>99.98999999999999</v>
+        <v>189.99</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4627,42 +4637,40 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H97" t="n">
-        <v>286</v>
+        <v>4</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71a-EIF8h3L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>100</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71QLolfD8GL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNDEwMjA1MDY4NDUwNDoxNzI1ODc2MjQ2OnNwX210ZjoyMDAwOTcwMDg2NzQ1OTg6OjA6Og&amp;url=%2FUF-TOOLS-destornilladores-el%25C3%25A9ctricos-destornillador-inal%25C3%25A1mbrico%2Fdp%2FB0B62KVDNC%2Fref%3Dsr_1_76_sspa%3Fdib%3DeyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876246%26sr%3D8-76-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/My-Arcade-Retro-M%C3%A1quina-200-Juegos/dp/B00S4HI1NY/ref=sr_1_77?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-77</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>UF-TOOLS - Juego de destornilladores eléctricos 51 en 1, mini destornillador de precisión inalámbrico recargable portátil con batería y luz LED, juego de puntas de destornillador magnéticas, kit de</t>
+          <t>My Arcade Retro Máquina w/200 Juegos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>B0B62KVDNC</t>
+          <t>B00S4HI1NY</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>39.97</v>
+        <v>25.83</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4671,40 +4679,42 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H98" t="n">
-        <v>437</v>
+        <v>2010</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/6192PgyNEJL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61iL+huvXrL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Kit-destornilladores-magn%C3%A9ticas-herramientas-electr%C3%B3nicas/dp/B0822FS7Z6/ref=sr_1_77?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-77</t>
+          <t>https://www.amazon.com/-/es/impermeable-inal%C3%A1mbrico-intermitentes-reproducci%C3%B3n-emparejamiento/dp/B09LLPSVBY/ref=sr_1_78?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-78</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SHOWPIN Kit de destornilladores de precisión 122 en 1, juegos de destornilladores para laptop con 101 brocas magnéticas, kit de herramientas electrónicas compatible con tabletas, PC, iPhone,</t>
+          <t>Altavoz Bluetooth portátil, IPX7 impermeable altavoz inalámbrico con luces intermitentes coloridas, 25 W Super Bass 24 horas de reproducción, rango de 100 pies, emparejamiento TWS para exteriores,</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>B0822FS7Z6</t>
+          <t>B09LLPSVBY</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>18.99</v>
+        <v>59.98</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4713,42 +4723,42 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H99" t="n">
-        <v>5283</v>
+        <v>9868</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81oN38OAm0L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/816OdoKncpL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Auriculares-inal%C3%A1mbricos-reproducci%C3%B3n-intrauditivos-impermeables/dp/B0D5HG7TC3/ref=sr_1_78?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-78</t>
+          <t>https://www.amazon.com/-/es/Doug-Lowe/dp/1119822114/ref=sr_1_79?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-79</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Auriculares inalámbricos Bluetooth 5.3, reproducción de 40 horas, auriculares estéreo con pantalla LED, estuche de carga IPX7, auriculares intrauditivos impermeables con micrófono para teléfono,</t>
+          <t>Electronics All-in-One For Dummies</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>B0D5HG7TC3</t>
+          <t>1119822114</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>17.99</v>
+        <v>37.08</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4757,42 +4767,40 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>8 K+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H100" t="n">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51pcU3wRmRL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>8000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81jiYIDvGVL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Organizador-electr%C3%B3nico-organizadora-electr%C3%B3nicos-almacenamiento/dp/B0924H4XB9/ref=sr_1_79?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-79</t>
+          <t>https://www.amazon.com/-/es/ABLEGRID-corporal-inteligente-composici%C3%B3n-frecuencia/dp/B09W9JNQB6/ref=sr_1_80?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-80</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FYY Organizador electrónico, organizador de cables de viaje, bolsa organizadora de cables electrónicos, funda de transporte, portátil, impermeable, doble capa, bolsa de almacenamiento todo en uno para cable, cable, cargador, teléfono, auriculares, color negro</t>
+          <t>ABLEGRID Báscula de grasa corporal, báscula de baño inteligente digital para peso corporal, pantalla LCD grande, 16 métricas de composición corporal IMC, peso de agua, frecuencia cardíaca, modo bebé,</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>B0924H4XB9</t>
+          <t>B09W9JNQB6</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9.85</v>
+        <v>54.99</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4801,42 +4809,42 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G101" t="n">
         <v>4.5</v>
       </c>
       <c r="H101" t="n">
-        <v>24398</v>
+        <v>2281</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81hLyL0rX2S._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71kPER-27VL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/AED-400/dp/B0BP1M4V9R/ref=sr_1_80?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-80</t>
+          <t>https://www.amazon.com/-/es/MUSICOZY-Auriculares-Bluetooth-auriculares-inal%C3%A1mbricos/dp/B07TPLZY74/ref=sr_1_81?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-81</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AODSK Electronic Drum Set,Electric Drum Set for Beginner with 150 Sounds,Drum Set With 4 Quiet Electric Drum Pads,2 Switch Pedal,Drum Throne,Drumsticks,On-Ear Headphones - AED-400</t>
+          <t>MUSICOZY - Auriculares con Bluetooth, máscara con auriculares inalámbricos para dormir de lado, hombres y mujeres, oficina, siesta, viajes en avión, regalos únicos para niños y niñas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>B0BP1M4V9R</t>
+          <t>B07TPLZY74</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>199.99</v>
+        <v>28.99</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4845,38 +4853,38 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H102" t="n">
-        <v>315</v>
+        <v>17929</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61rl7+9Ah3L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71I03zlFz8L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Charles-Platt/dp/1449333893/ref=sr_1_81?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-81</t>
+          <t>https://www.amazon.com/-/es/Oyvind-Nydal-Dahl/dp/1593277253/ref=sr_1_82?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-82</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Encyclopedia of Electronic Components Volume 1: Resistors, Capacitors, Inductors, Switches, Encoders, Relays, Transistors</t>
+          <t>Electronics for Kids: Play with Simple Circuits and Experiment with Electricity!</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1449333893</t>
+          <t>1593277253</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -4893,14 +4901,14 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H103" t="n">
-        <v>1099</v>
+        <v>326</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71sqtyEQhPL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/91bY4ArIptL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -4908,21 +4916,21 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Organizador-electr%C3%B3nico-resistente-compartimento-almacenamiento/dp/B0CY57DPW5/ref=sr_1_82?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-82</t>
+          <t>https://www.amazon.com/-/es/John-G-Kassakian/dp/1316519511/ref=sr_1_83?dib=eyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759561&amp;sr=8-83</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>tomtoc Organizador electrónico de viaje, resistente al agua, doble compartimento, bolsa de almacenamiento para cargador, cable, teléfono, disco duro, banco de energía, accesorios esenciales de viaje</t>
+          <t>Principles of Power Electronics</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>B0CY57DPW5</t>
+          <t>1316519511</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>25.99</v>
+        <v>61.99</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4931,42 +4939,40 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>974</v>
+        <v>7</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71wqczwDIPL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J104" t="n">
-        <v>500</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61FZhTDOukL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Jerry-Twomey/dp/1098144791/ref=sr_1_83?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-83</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjQ5OTUxNDc2NDk0NTY3OjE3MjY3NTk1NjE6c3BfYnRmOjMwMDQyMzc2NzIxOTkwMjo6MDo6&amp;url=%2FCharging-Cargador-veh%25C3%25ADculos-el%25C3%25A9ctricos-Serie%2Fdp%2FB0D8LL8PXY%2Fref%3Dsr_1_85_sspa%3Fdib%3DeyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759561%26sr%3D8-85-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Applied Embedded Electronics: Design Essentials for Robust Systems</t>
+          <t>| Cargador EV 48A | Cargador de CA para vehículos eléctricos Serie Z18</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1098144791</t>
+          <t>B0D8LL8PXY</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>43.49</v>
+        <v>399.99</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4975,18 +4981,18 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G105" t="n">
         <v>5</v>
       </c>
       <c r="H105" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71a6KYln-nL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81zLBpDbL4L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -4994,21 +5000,21 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Arcade-Gamer-Portable-Electronic-juegos-electr%C3%B3nicos/dp/B097ZC7YGT/ref=sr_1_84?dib=eyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876246&amp;sr=8-84</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjQ5OTUxNDc2NDk0NTY3OjE3MjY3NTk1NjE6c3BfYnRmOjMwMDM4MjQyMzE0MjQwMjo6MDo6&amp;url=%2Fdigital-pulgadas-almacenamiento-configuraci%25C3%25B3n-compartir%2Fdp%2FB0D5Y72JLG%2Fref%3Dsr_1_86_sspa%3Fdib%3DeyJ2IjoiMSJ9.CVFFU4Kk5LV_cFXIVOZ3ZAm1x8YJfi-ltbWTpZ3WSD-NvRNSSv9saHfFzyub25bTh_qwIbQWU_O5_PnlN7sZKP9Nb7b41qCbSzpYVWzCnb1GqRAE9Drx4t_EgPV8PWMQ6wSvEA9Zc03SvHSNhjnLNPCG2RsTKme-t5to7_ue8cf2lBBBmBXObL8KgSMl7Ym5UiLoJE-qqYX04eHnt7xP7hlfXA3d4ptiGPT3BEXTWjs.5ppunJDAslHFp4hDLqBSW-gV8PXiJYfPNuQHr5Giuug%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759561%26sr%3D8-86-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>My Arcade Go Gamer Portable - Handheld Gaming System - 300 Retro Style Games - Battery Powered - Full Color Display - Volume Buttons - Headphone Jack - Electronic Games</t>
+          <t>KODAK Marco de fotos digital WiFi, 11.6 pulgadas, 1366 x 768HD, marco de fotos digital IPS con almacenamiento de 32 GB, fácil configuración para compartir fotos o videos, el mejor regalo para</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>B097ZC7YGT</t>
+          <t>B0D5Y72JLG</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>29.99</v>
+        <v>189.99</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5017,18 +5023,18 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H106" t="n">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81hBriWxQ+L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61IuJ5ZykHL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5036,21 +5042,21 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToxNDEwMjA1MDY4NDUwNDoxNzI1ODc2MjQ2OnNwX2J0ZjozMDAzMTAwNjgyMDkwMDI6OjA6Og&amp;url=%2FPaquete-combinado-bater%25C3%25ADas-unidades-rendimiento%2Fdp%2FB0CXPRY7WK%2Fref%3Dsr_1_85_sspa%3Fdib%3DeyJ2IjoiMSJ9.Jc8NhYXwt5CI4xC9ZtBQqNSazCxZDFv2LCY6WFXQe48BI6MbfngaqyI8FSQypG6-EQttfxQmDnckuZOoYtatdYC3owSQEDASigzD4YM3ko740XL8MQoRSaUCMhQ6GPg3XEJ3oJjgpk0Lo4pBDj6BT0mBHE5i9vM2lZBGrjYghkYxaWE0mOixl1zhiRzxNXxNYE_dZxDt8zPI_uFz_NpA7UFZ1eO78ZeH3Gu6aMnesls.fuGTpqwFyQXO_TgopaWv2GptfOwj5Nttv6XtyT_N0YQ%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876246%26sr%3D8-85-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MzUwODI3OTU3NDU5NDcwOjE3MjY3NTk1NzE6c3BfYXRmX25leHQ6MzAwMTMyNjMwMzM4MDAyOjowOjo&amp;url=%2FNautica-Dockside-inteligentes-inal%25C3%25A1mbricos-polarizados%2Fdp%2FB0CRBJ8J3V%2Fref%3Dsr_1_81_sspa%3Fdib%3DeyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759571%26sr%3D8-81-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lepro Paquete combinado de baterías AA y AAA, 48 unidades, paquete variado de baterías de 2800 mAh de alto rendimiento, 24 pilas AA dobles y 24 pilas AAA triples</t>
+          <t>Nautica Dockside - Lentes de sol inteligentes para hombres y mujeres, lentes inteligentes inalámbricos con altavoces de oído abierto y micrófono, lentes polarizados UV400 - degradado negro (estándar)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>B0CXPRY7WK</t>
+          <t>B0CRBJ8J3V</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>24.99</v>
+        <v>153.99</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5059,42 +5065,40 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="H107" t="n">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71SpO-ceWBL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J107" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/51spaAxh1KL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTgyNjc1NjIwMDcxMjQ6MTcyNTg3NjI1ODpzcF9hdGZfbmV4dDozMDAzNzMzMjIzODE5MDI6OjA6Og&amp;url=%2FMicroscopio-trinocular-compatible-diapositivas-preparadas%2Fdp%2FB098B11W4D%2Fref%3Dsr_1_81_sspa%3Fdib%3DeyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876258%26sr%3D8-81-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1%26smid%3DA2BN93UE3F4SWF</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MzUwODI3OTU3NDU5NDcwOjE3MjY3NTk1NzE6c3BfYXRmX25leHQ6MzAwMzczNTkyMDY3MjAyOjowOjo&amp;url=%2Finteligente-pulgadas-autom%25C3%25A1tica-integrada-cualquier%2Fdp%2FB0BVLCH2VN%2Fref%3Dsr_1_82_sspa%3Fdib%3DeyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759571%26sr%3D8-82-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Swift Microscopio trinocular compuesto SW350T, aumento 40X-2500X, etapa mecánica de dos capas, con cámara de 5.0 mp y software compatible con Windows/Mac y 5 diapositivas preparadas y 5 diapositivas</t>
+          <t>Kodak Marco de fotos digital inteligente WiFi de 14.1 pulgadas, pantalla táctil de 1920 x 1080, rotación automática, memoria integrada de 32 GB, comparte fotos y videos en cualquier lugar y en</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>B098B11W4D</t>
+          <t>B0BVLCH2VN</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>309.99</v>
+        <v>269.99</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5103,18 +5107,18 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H108" t="n">
-        <v>621</v>
+        <v>5</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71wWZ1mwQTL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71gPEG0P8yL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5122,22 +5126,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTgyNjc1NjIwMDcxMjQ6MTcyNTg3NjI1ODpzcF9hdGZfbmV4dDozMDAzMjc1NTE3MTM3MDI6OjA6Og&amp;url=%2FAuriculares-cancelaci%25C3%25B3n-auriculares-inal%25C3%25A1mbricos-HP30%2Fdp%2FB0CXPJ92ZX%2Fref%3Dsr_1_82_sspa%3Fdib%3DeyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876258%26sr%3D8-82-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Canon-EOS-Mark-RF24-4-134-lentes/dp/B0D9KNNJVK/ref=sr_1_83_mod_primary_new?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-83</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NUROUM Auriculares Bluetooth con micrófono, micrófonos con cancelación de ruido ambiental, auriculares inalámbricos para PC/computadora/móvil, dongle/Bluetooth/USB para zoom/Skype HP30</t>
+          <t>Canon EOS R5 Mark II RF24-4.134 in F4 L es el kit de lentes USM</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>B0CXPJ92ZX</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>59.99</v>
-      </c>
+          <t>B0D9KNNJVK</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -5145,40 +5147,42 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61TQQ7Tg3aL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61LzfUQJl-L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/autom%C3%B3vil-parabrisas-ventilaci%C3%B3n-universal-compatible/dp/B0CHS69JW3/ref=sr_1_83?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-83</t>
+          <t>https://www.amazon.com/-/es/Proyector-exteriores-Bluetooth-autom%C3%A1tico-compatible/dp/B0D97SZCY6/ref=sr_1_84?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-84</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Qifutan Soporte de teléfono para automóvil, soporte de teléfono para parabrisas de automóvil, ventilación de aire, universal, manos libres, soporte para teléfono celular, compatible con iPhone,</t>
+          <t>Proyector para exteriores 4K, DIPIKPRJ P8 1300 ANSI WiFi 6 Proyector Bluetooth, sonido, audio Dolby, enfoque automático y Keystone, nativo 1080P 4K compatible con prueba de polvo, pantalla de 500</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>B0CHS69JW3</t>
+          <t>B0D97SZCY6</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>11.99</v>
+        <v>299.99</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5187,41 +5191,41 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G110" t="n">
         <v>4.3</v>
       </c>
       <c r="H110" t="n">
-        <v>15517</v>
+        <v>4</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71OjC2Gpb4L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>10000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81G2DsRpiTL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/destornilladores-destornillador-electr%C3%B3nico-herramientas-computadora/dp/B09WDNF4W8/ref=sr_1_84?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-84</t>
+          <t>https://www.amazon.com/-/es/AED-400/dp/B0BP1M4V9R/ref=sr_1_85?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-85</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Juego de destornilladores de precisión de 192 piezas, destornillador electrónico multibroca, destornillador de tuerca de 1/4 pulgadas, kit de herramientas de mejora del hogar para computadora, iPhone, laptop, PC, teléfono celular, PS4, Xbox, Nintendo (rojo)</t>
+          <t>AODSK Electronic Drum Set,Electric Drum Set for Beginner with 150 Sounds,Drum Set With 4 Quiet Electric Drum Pads,2 Switch Pedal,Drum Throne,Drumsticks,On-Ear Headphones - AED-400</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>B09WDNF4W8</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>B0BP1M4V9R</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>189.6</v>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -5229,42 +5233,42 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H111" t="n">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81n3cisgsmL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61rl7+9Ah3L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Toallitas-electr%C3%B3nicas-limpiador-computadora-toallitas/dp/B0CNDFWJQP/ref=sr_1_85?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-85</t>
+          <t>https://www.amazon.com/-/es/Forrest-M-Mims-III/dp/0945053282/ref=sr_1_86?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-86</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>EVEO Toallitas electrónicas, limpiador de pantalla de TV, limpiador de pantalla de computadora, limpiador de pantalla de laptop, limpiador de iPad y monitor, limpiador de pantalla de TV, [90 toallitas</t>
+          <t>Getting Started in Electronics</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>B0CNDFWJQP</t>
+          <t>0945053282</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>12.97</v>
+        <v>19.95</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5273,42 +5277,40 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H112" t="n">
-        <v>139</v>
+        <v>716</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71h8DED2R3L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J112" t="n">
-        <v>2000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81rrQz6RojL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/electr%C3%B3nico-temperatura-controlada-termost%C3%A1tico-calentamiento/dp/B0B28JQ95M/ref=sr_1_86?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-86</t>
+          <t>https://www.amazon.com/-/es/limpiador-herramienta-computadora-electr%C3%B3nico-multifunci%C3%B3n/dp/B0C2VBXRYG/ref=sr_1_87?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-87</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Kit de soldador electrónico, pistola de soldadura digital LCD de 80 W con temperatura ajustable controlada y diseño termostático de cerámica de calentamiento rápido, kit de soldadura de 24 piezas</t>
+          <t>Kit de limpieza de teclado, limpiador de laptop, herramienta de cepillo de limpieza de pantalla de computadora 10 en 1, kit de limpiador electrónico de PC multifunción para iPad iPhone Pro,</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>B0B28JQ95M</t>
+          <t>B0C2VBXRYG</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>21.99</v>
+        <v>16.98</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5317,42 +5319,42 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>7 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H113" t="n">
-        <v>1431</v>
+        <v>5619</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81TIeHukG3L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71AJth10-BL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>50</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Dispositivo-traductor-compatible-dispositivo-instant%C3%A1neo/dp/B0D2X589NF/ref=sr_1_87?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-87</t>
+          <t>https://www.amazon.com/-/es/Kit-destornilladores-magn%C3%A9ticas-herramientas-electr%C3%B3nicas/dp/B0822FS7Z6/ref=sr_1_88?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-88</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Dispositivo traductor de idiomas, compatible con 138 idiomas, dispositivo de traductor de idiomas sin conexión instantáneo, traductor de voz sin conexión, traductor de idiomas portátil de dos vías en</t>
+          <t>SHOWPIN Kit de destornilladores de precisión 122 en 1, juegos de destornilladores para laptop con 101 brocas magnéticas, kit de herramientas electrónicas compatible con tabletas, PC, iPhone,</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>B0D2X589NF</t>
+          <t>B0822FS7Z6</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>79.98999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5361,42 +5363,42 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H114" t="n">
-        <v>156</v>
+        <v>5292</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/617oz2tll0L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81oN38OAm0L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Electronics-Studio-Handheld-Supercardioid-Microphone/dp/B09MZNC8GS/ref=sr_1_88?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-88</t>
+          <t>https://www.amazon.com/-/es/Organizador-electr%C3%B3nico-resistente-compartimento-almacenamiento/dp/B0CY57DPW5/ref=sr_1_89?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-89</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SE Electronics V7 BLACK Studio Grade Handheld Supercardioid Microphone with Shock Mount (Negro)</t>
+          <t>tomtoc Organizador electrónico de viaje, resistente al agua, doble compartimento, bolsa de almacenamiento para cargador, cable, teléfono, disco duro, banco de energía, accesorios esenciales de viaje</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>B09MZNC8GS</t>
+          <t>B0CY57DPW5</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>99</v>
+        <v>20.79</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5405,42 +5407,42 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G115" t="n">
         <v>4.7</v>
       </c>
       <c r="H115" t="n">
-        <v>145</v>
+        <v>991</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Jmn+DFmLL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/718cft5bs2L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Auriculares-inal%C3%A1mbricos-reproducci%C3%B3n-alimentaci%C3%B3n-impermeable/dp/B0D7CPMG3Q/ref=sr_1_89?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-89</t>
+          <t>https://www.amazon.com/-/es/CryoBoost-certificado-refrigeraci%C3%B3n-ventilaci%C3%B3n-instrumentos/dp/B0D7MSX6GG/ref=sr_1_90?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-90</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Auriculares inalámbricos Bluetooth 5.3, reproducción de 60 horas, potente sonido con pantalla de alimentación LED, estuche de carga en el oído, IPX7, impermeable, con micrófono, para correr,</t>
+          <t>ESR Cargador de coche MagSafe para Qi2 de 15 W con CryoBoost, cargador de coche MagSafe certificado Qi2 con refrigeración por teléfono, ventilación de aire/tablero de instrumentos, cargador</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>B0D7CPMG3Q</t>
+          <t>B0D7MSX6GG</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>25.99</v>
+        <v>38.99</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5449,42 +5451,42 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>6 K+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H116" t="n">
-        <v>392</v>
+        <v>9</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71GsZk-PKoL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71ECDc0wlUL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/comprimido-el%C3%A9ctrico-inal%C3%A1mbrico-recargable-engranajes/dp/B0D5L9JL3P/ref=sr_1_90?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-90</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MzUwODI3OTU3NDU5NDcwOjE3MjY3NTk1NzE6c3BfbXRmOjMwMDQwNDYxNDc5OTIwMjo6MDo6&amp;url=%2FProyector-exteriores-Bluetooth-autom%25C3%25A1tico-compatible%2Fdp%2FB0D97SZCY6%2Fref%3Dsr_1_91_sspa%3Fdib%3DeyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759571%26sr%3D8-91-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>EUKI Plumero de aire comprimido, 150000 RPM, soplador de aire eléctrico inalámbrico recargable de alta velocidad, soplador de secado a chorro ajustable de 3 engranajes para teclado, PC, automóvil,</t>
+          <t>Proyector para exteriores 4K, DIPIKPRJ P8 1300 ANSI WiFi 6 Proyector Bluetooth, sonido, audio Dolby, enfoque automático y Keystone, nativo 1080P 4K compatible con prueba de polvo, pantalla de 500</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>B0D5L9JL3P</t>
+          <t>B0D97SZCY6</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>89.98999999999999</v>
+        <v>299.99</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5493,42 +5495,40 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H117" t="n">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71xJaZoUwtL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J117" t="n">
-        <v>1000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81G2DsRpiTL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTgyNjc1NjIwMDcxMjQ6MTcyNTg3NjI1ODpzcF9tdGY6MzAwNDA2MTAyNTM1NTAyOjowOjo&amp;url=%2Fdp%2FB0DG4LTH2T%2Fref%3Dsr_1_91_sspa%3Fdib%3DeyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876258%26sr%3D8-91-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MzUwODI3OTU3NDU5NDcwOjE3MjY3NTk1NzE6c3BfbXRmOjMwMDQyNjU5NDkzOTkwMjo6MDo6&amp;url=%2Freproducci%25C3%25B3n-R1-transcripci%25C3%25B3n-inteligente-dispositivo%2Fdp%2FB0D8VDY9TX%2Fref%3Dsr_1_92_sspa%3Fdib%3DeyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759571%26sr%3D8-92-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>128G Magnetic Voice Activated Recorder Device,MP3 Voice Records with Microphone,60 Hours Continuous Portable Audio Recorders for Work,Lectures,Meetings,Interviews,Small USB-C Audio Recorder</t>
+          <t>Grabadora de voz digital 72G con reproducción, innioasis R1 grabadora de voz con pantalla táctil completa con Bluetooth y transcripción STT inteligente, dispositivo de grabación de audio de sonido</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>B0DG4LTH2T</t>
+          <t>B0D8VDY9TX</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>49.99</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5537,40 +5537,42 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61GaI+KXGmL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/7165s99hAFL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTgyNjc1NjIwMDcxMjQ6MTcyNTg3NjI1ODpzcF9tdGY6MzAwMTcyMjIwNTYyMzAyOjowOjo&amp;url=%2Final%25C3%25A1mbrico-impermeable-emparejamiento-envolvente-electr%25C3%25B3nicos%2Fdp%2FB0C4WHSFBJ%2Fref%3Dsr_1_92_sspa%3Fdib%3DeyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876258%26sr%3D8-92-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/estimulador-masajeador-electr%C3%B3nico-almohadillas-almacenamiento/dp/B07Q32KX3J/ref=sr_1_93?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-93</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Altavoz Bluetooth, portátil inalámbrico, sonido estéreo HD, con luces LED dinámicas frescas, IPX4 impermeable, BT5.3, emparejamiento envolvente dual, accesorios electrónicos para él y ella, para</t>
+          <t>Belifu Unidad TENS EMS de doble canal, 24 modos, estimulador muscular para terapia de alivio del dolor, masajeador electrónico de pulso con 10 almohadillas, bolsa de almacenamiento con cordón a prueba</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>B0C4WHSFBJ</t>
+          <t>B07Q32KX3J</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>29.99</v>
+        <v>26.39</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5579,42 +5581,42 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>7 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H119" t="n">
-        <v>1360</v>
+        <v>59711</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81r7UMCy4RL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71i+nWHnBjS._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/limpiador-herramienta-computadora-electr%C3%B3nico-multifunci%C3%B3n/dp/B0C2VBXRYG/ref=sr_1_93?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-93</t>
+          <t>https://www.amazon.com/-/es/dise%C3%B1ar-circuitos-el%C3%A9ctricos-Circuits-SC-100/dp/B00008BFZH/ref=sr_1_94?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-94</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Kit de limpieza de teclado, limpiador de laptop, herramienta de cepillo de limpieza de pantalla de computadora 10 en 1, kit de limpiador electrónico de PC multifunción para iPad iPhone Pro,</t>
+          <t>Kit para diseñar circuitos eléctricos Circuits Jr. SC-100, Negro</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>B0C2VBXRYG</t>
+          <t>B00008BFZH</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>16.98</v>
+        <v>29.99</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5623,42 +5625,42 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>6 K+ comprados el mes pasado</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H120" t="n">
-        <v>5534</v>
+        <v>27184</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71AJth10-BL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81qSyuUmNaL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/organizadora-accesorios-electr%C3%B3nicos-organizador-electr%C3%B3nico/dp/B08YZ461Q1/ref=sr_1_94?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-94</t>
+          <t>https://www.amazon.com/-/es/Jerry-Twomey/dp/1098144791/ref=sr_1_95?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-95</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Bolsa organizadora de accesorios electrónicos, organizador electrónico de viaje, organizador universal de cables, bolsa de accesorios electrónicos para cable, cargador, teléfono, tarjeta SD, bolsa de viaje de negocios</t>
+          <t>Applied Embedded Electronics: Design Essentials for Robust Systems</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>B08YZ461Q1</t>
+          <t>1098144791</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>8.6</v>
+        <v>43.49</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5667,42 +5669,40 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2 K+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H121" t="n">
-        <v>12935</v>
+        <v>8</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71+nlW-6I3L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>2000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71a6KYln-nL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B01BZCCF36/ref=sr_1_95?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-95</t>
+          <t>https://www.amazon.com/-/es/CritterTec-el%C3%A9ctrica-interiores-electr%C3%B3nicas-instant%C3%A1neamente/dp/B0D7HNCLQD/ref=sr_1_96?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-96</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Circuit Engineering: The Beginner's Guide to Electronic Circuits, Semi-Conductors, Circuit Boards, and Basic Electronics</t>
+          <t>Trampa eléctrica mejorada para ratones para interiores, paquete de 2 trampas electrónicas para ratas con alto voltaje que mata instantáneamente ratas y ratones, solución humana para matar</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>B01BZCCF36</t>
+          <t>B0D7HNCLQD</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5711,40 +5711,42 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H122" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81NBN-Tto+L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61ueTY-eujL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/CronusZen-Nintendo-PlayStation-Switch-Electronic/dp/B0895MV7C7/ref=sr_1_96?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-96</t>
+          <t>https://www.amazon.com/-/es/Estabilizador-port%C3%A1til-smartphone-compatible-Smartphone/dp/B0D7Q2TDW3/ref=sr_1_97?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-97</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CronusZen for Nintendo, PlayStation, Xbox, Switch (Electronic Games)</t>
+          <t>Zeadio Estabilizador portátil de video con soporte de jaula de video para smartphone, agarre triple de mango de zapata fría compatible con todas las cámaras de acción DSLR Smartphone</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>B0895MV7C7</t>
+          <t>B0D7Q2TDW3</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>99.93000000000001</v>
+        <v>49.99</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5753,42 +5755,42 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
-        <v>3740</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61KIgyXlckL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71CJfT4LT2L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Mitchel-Schultz/dp/1260571440/ref=sr_1_97?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-97</t>
+          <t>https://www.amazon.com/-/es/Toallitas-electr%C3%B3nicas-limpiador-computadora-toallitas/dp/B0CNDFWJQP/ref=sr_1_98?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-98</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ISE Grob's Basic Electronics (ISE HED ENGINEERING TECHNOLOGIES &amp; THE TRADES)</t>
+          <t>EVEO Toallitas electrónicas, limpiador de pantalla de TV, limpiador de pantalla de computadora, limpiador de pantalla de laptop, limpiador de iPad y monitor, limpiador de pantalla de TV, [90 toallitas</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1260571440</t>
+          <t>B0CNDFWJQP</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>83.89</v>
+        <v>12.96</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5797,40 +5799,42 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H124" t="n">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/31QCJO23v7L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71h8DED2R3L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/TOBTOS-Plumero-aire-comprimido-computadora/dp/B0D69JBLJN/ref=sr_1_98?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-98</t>
+          <t>https://www.amazon.com/-/es/inteligente-electr%C3%B3nico-entrenamiento-almohadillas-adecuadas/dp/B0D12GMK2D/ref=sr_1_99?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-99</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TOBTOS Plumero de aire comprimido – Plumero de aire recargable y aspiradora 3 en 1, limpiador de teclado de computadora inalámbrico, sin plumero de aire enlatado para limpieza de polvo de automóvil,</t>
+          <t>Máquina de boxeo de música para el hogar, boxeador de música, enfoque inteligente electrónico, entrenamiento de agilidad, boxeo digital, almohadillas de boxeo de pared, adecuadas para niños y</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>B0D69JBLJN</t>
+          <t>B0D12GMK2D</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>27.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5839,42 +5843,42 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H125" t="n">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71bj9xco5tL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71A6FOydKCL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Samsonite-B%C3%A1scula-electr%C3%B3nica-equipaje-color/dp/B00OVADLBU/ref=sr_1_99?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-99</t>
+          <t>https://www.amazon.com/-/es/comprimido-el%C3%A9ctrico-inal%C3%A1mbrico-recargable-engranajes/dp/B0D5L9JL3P/ref=sr_1_100?dib=eyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759571&amp;sr=8-100</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Samsonite Báscula electrónica de equipaje, color negro, talla única, Negro -, Báscula electrónica de equipaje</t>
+          <t>EUKI Plumero de aire comprimido, 150000 RPM, soplador de aire eléctrico inalámbrico recargable de alta velocidad, soplador de secado a chorro ajustable de 3 engranajes para teclado, PC, automóvil,</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>B00OVADLBU</t>
+          <t>B0D5L9JL3P</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>19.6</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5883,42 +5887,42 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H126" t="n">
-        <v>647</v>
+        <v>122</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51McQQKw5gL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71xJaZoUwtL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Nintendo-SwitchTM-Neon-Blue-Joy%E2%80%91ConTM-Switch/dp/B0BFJWCYTL/ref=sr_1_100?dib=eyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876258&amp;sr=8-100</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MzUwODI3OTU3NDU5NDcwOjE3MjY3NTk1NzE6c3BfYnRmOjMwMDM5ODU3OTEzNzIwMjo6MDo6&amp;url=%2FCanupdog-autom%25C3%25A1tica-presentaci%25C3%25B3n-diapositivas-compartir%2Fdp%2FB0CTMQGF3G%2Fref%3Dsr_1_102_sspa%3Fdib%3DeyJ2IjoiMSJ9.Nw_0r7JHucayLmEnd2lw2mOCF9m_v-j4Fc_96OecGV-BXnmduKfFfEmSLWVNhU2gl6kV9Utb7QqSdBKDGwSAWjnEr0bcA5mC19D4IYOAt3rPqbfuWh6UIF_rBCJ6N8oDTrx91l_lhlNQv8o58FPg6EMTo3-TdGpC3xkkDvOuR_7uUEn_SQXFSmmvGZfWZ1ZVwCaCUCA9wo_9_9nqTNcE143Ql5Ka8zVT2Xany0TLZpc.HK3tmjS0wF-U4T6xAEp2RfdrjXwH2HYb_9yru2wiNGk%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759571%26sr%3D8-102-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nintendo Switch™ with Neon Blue and Neon Red Joy‑Con™</t>
+          <t>Marco de fotos digital de 10.1 pulgadas, marco de fotos digital WiFi con pantalla táctil LCD IPS de 1280 x 800, rotación automática, presentación de diapositivas, para compartir fotos o</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>B0BFJWCYTL</t>
+          <t>B0CTMQGF3G</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>263.99</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5927,40 +5931,42 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H127" t="n">
-        <v>7736</v>
+        <v>107</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71wpE+ZIehL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71anm2S5V5L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTgyNjc1NjIwMDcxMjQ6MTcyNTg3NjI1ODpzcF9idGY6MzAwMTczMzUyMDU3NjAyOjowOjo&amp;url=%2FNOTHING-Cargador-cargador-protecci%25C3%25B3n-completa%2Fdp%2FB0CJ8YT4K5%2Fref%3Dsr_1_101_sspa%3Fdib%3DeyJ2IjoiMSJ9.xuJ395ZS_jS8fGuaqp9IyFY-5oLiNml8CxToa3w9psjmh9w-DDudsZWXBSjDQMGOZv2mT9VmpNSrz0docuEtI3DtpcJAatGH6nb8LNlAk2tnTgpBWY_ZYw0mGIWMpofKVd04mozlgDvENKYoLUAKTfElmbnwDXxnyYJLkAzocB3bF_6iHm9W1g0OUI1kiPtqdi6X1GwSHn1OxmCfLspM9tPALyiEA4076hyUbUuT0uo.DKD5zUmmlvKq7fo1sM176nWGLZdhhMT1TM9dMDVrqHw%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876258%26sr%3D8-101-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTkwMTE3NTA2OTI2NjgxOjE3MjY3NTk1ODU6c3BfYXRmX25leHQ6MzAwMzY5ODIzMjE2NzAyOjowOjo&amp;url=%2FNETGEAR-Conmutador-Inteligente-Ethernet-GS724TPP%2Fdp%2FB0C2JJHMPM%2Fref%3Dsr_1_97_sspa%3Fdib%3DeyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759585%26sr%3D8-97-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cargador de energía, cargador 3 en 1 de 65 W GaN tipo C, cargador de pared de carga rápida, protección completa, bloque de cargador USB C para Nothing Phone y iPad Pro, iPhone</t>
+          <t>NETGEAR Conmutador Inteligente Gigabit Ethernet PoE de 26 puertos (GS724TPP) - Administración en la nube Insight opcional, 24 x PoE+ @ 380W, 2 x 1G SFP, Desktop o Rackmount, y protección limitada de</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>B0CJ8YT4K5</t>
+          <t>B0C2JJHMPM</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>39</v>
+        <v>499.99</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5969,42 +5975,40 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H128" t="n">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51ZXtloQIKL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J128" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61GxoBwYwrL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NzA0Mjc3OTc3MzQ0NjMyOjE3MjU4NzYyNjk6c3BfYXRmX25leHQ6MzAwNDA2ODA5NDc0NjAyOjowOjo&amp;url=%2Ftablero-autom%25C3%25B3viles-integrada-aplicaci%25C3%25B3n-pulgadas%2Fdp%2FB0D5MBF5G8%2Fref%3Dsr_1_98_sspa%3Fdib%3DeyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876269%26sr%3D8-98-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTkwMTE3NTA2OTI2NjgxOjE3MjY3NTk1ODU6c3BfYXRmX25leHQ6MjAwMDUxNzk5Mzk5NzYxOjowOjo&amp;url=%2FResonance-Micr%25C3%25B3fono-din%25C3%25A1mico-UC1S-interruptor%2Fdp%2FB00CH2M92Q%2Fref%3Dsr_1_98_sspa%3Fdib%3DeyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759585%26sr%3D8-98-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cámara de tablero frontal y trasera 4K/1080P, cámara de tablero para automóviles con WiFi integrada, cámara de tablero Full HD con control de aplicación, cámara IPS de 3.94 pulgadas con tarjeta SD de</t>
+          <t>Pure Resonance Audio Micrófono vocal dinámico ultra claro UC1S con interruptor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>B0D5MBF5G8</t>
+          <t>B00CH2M92Q</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>79.98999999999999</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6013,42 +6017,40 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H129" t="n">
-        <v>232</v>
+        <v>4</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71yiK9B7mLL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J129" t="n">
-        <v>1000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61UQn6Du1RL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Samsonite-B%C3%A1scula-electr%C3%B3nica-equipaje-color/dp/B00OVADLBU/ref=sr_1_99?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-99</t>
+          <t>https://www.amazon.com/-/es/Matein-Organizador-electr%C3%B3nicos-impermeable-accesorios/dp/B07PTP17LK/ref=sr_1_99?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-99</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Samsonite Báscula electrónica de equipaje, color negro, talla única, Negro -, Báscula electrónica de equipaje</t>
+          <t>Matein - Organizador de viaje para aparatos electrónicos, estuche impermeable para accesorios electrónicos, regalos portátiles de viaje para hombres, bolsa de doble capa para guardar cables, cargadores, memorias USB, teléfonos, Ipad Mini, negro</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>B00OVADLBU</t>
+          <t>B07PTP17LK</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>19.6</v>
+        <v>13.29</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6057,42 +6059,42 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>1 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H130" t="n">
-        <v>647</v>
+        <v>8896</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51McQQKw5gL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81KhJrQx1CL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Mitchel-Schultz/dp/1260571440/ref=sr_1_100?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-100</t>
+          <t>https://www.amazon.com/-/es/Jerry-Twomey/dp/1098144791/ref=sr_1_100?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-100</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ISE Grob's Basic Electronics (ISE HED ENGINEERING TECHNOLOGIES &amp; THE TRADES)</t>
+          <t>Applied Embedded Electronics: Design Essentials for Robust Systems</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1260571440</t>
+          <t>1098144791</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>83.89</v>
+        <v>43.49</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6105,14 +6107,14 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H131" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/31QCJO23v7L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71a6KYln-nL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6120,21 +6122,21 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/CronusZen-Nintendo-PlayStation-Switch-Electronic/dp/B0895MV7C7/ref=sr_1_101?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-101</t>
+          <t>https://www.amazon.com/-/es/CritterTec-el%C3%A9ctrica-interiores-electr%C3%B3nicas-instant%C3%A1neamente/dp/B0D7HNCLQD/ref=sr_1_101?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-101</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CronusZen for Nintendo, PlayStation, Xbox, Switch (Electronic Games)</t>
+          <t>Trampa eléctrica mejorada para ratones para interiores, paquete de 2 trampas electrónicas para ratas con alto voltaje que mata instantáneamente ratas y ratones, solución humana para matar</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>B0895MV7C7</t>
+          <t>B0D7HNCLQD</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>99.93000000000001</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6143,42 +6145,42 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
-        <v>3740</v>
+        <v>58</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61KIgyXlckL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61ueTY-eujL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/TOBTOS-Plumero-aire-comprimido-computadora/dp/B0D69JBLJN/ref=sr_1_102?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-102</t>
+          <t>https://www.amazon.com/-/es/comprimido-el%C3%A9ctrico-inal%C3%A1mbrico-recargable-engranajes/dp/B0D5L9JL3P/ref=sr_1_102?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-102</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TOBTOS Plumero de aire comprimido – Plumero de aire recargable y aspiradora 3 en 1, limpiador de teclado de computadora inalámbrico, sin plumero de aire enlatado para limpieza de polvo de automóvil,</t>
+          <t>EUKI Plumero de aire comprimido, 150000 RPM, soplador de aire eléctrico inalámbrico recargable de alta velocidad, soplador de secado a chorro ajustable de 3 engranajes para teclado, PC, automóvil,</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>B0D69JBLJN</t>
+          <t>B0D5L9JL3P</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>27.99</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6191,14 +6193,14 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H133" t="n">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71bj9xco5tL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71xJaZoUwtL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J133" t="n">
@@ -6208,21 +6210,21 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Nintendo-SwitchTM-Neon-Blue-Joy%E2%80%91ConTM-Switch/dp/B0BFJWCYTL/ref=sr_1_103?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-103</t>
+          <t>https://www.amazon.com/-/es/inteligente-electr%C3%B3nico-entrenamiento-almohadillas-adecuadas/dp/B0D12GMK2D/ref=sr_1_103?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-103</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Nintendo Switch™ with Neon Blue and Neon Red Joy‑Con™</t>
+          <t>Máquina de boxeo de música para el hogar, boxeador de música, enfoque inteligente electrónico, entrenamiento de agilidad, boxeo digital, almohadillas de boxeo de pared, adecuadas para niños y</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>B0BFJWCYTL</t>
+          <t>B0D12GMK2D</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>263.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6231,40 +6233,42 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H134" t="n">
-        <v>7736</v>
+        <v>88</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71wpE+ZIehL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71A6FOydKCL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/inteligente-respuesta-rastreador-deportivos-impermeable/dp/B0CZNX1YBK/ref=sr_1_104?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-104</t>
+          <t>https://www.amazon.com/-/es/Toallitas-electr%C3%B3nicas-limpiador-computadora-toallitas/dp/B0CNDFWJQP/ref=sr_1_104?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-104</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Reloj inteligente, reloj inteligente de 1.91 pulgadas para hombres y mujeres (respuesta/hacer llamadas), rastreador de actividad con más de 100 modos deportivos, IP68 impermeable, monitor de</t>
+          <t>EVEO Toallitas electrónicas, limpiador de pantalla de TV, limpiador de pantalla de computadora, limpiador de pantalla de laptop, limpiador de iPad y monitor, limpiador de pantalla de TV, [90 toallitas</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>B0CZNX1YBK</t>
+          <t>B0CNDFWJQP</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>39.99</v>
+        <v>12.96</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6273,42 +6277,42 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>6 K+ comprados el mes pasado</t>
+          <t>2 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H135" t="n">
-        <v>4152</v>
+        <v>157</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71LT+lhcvpL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71h8DED2R3L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/GiiKER-rompecabezas-port%C3%A1tiles-educaci%C3%B3n-crecimiento/dp/B0CWRLGD9L/ref=sr_1_105?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-105</t>
+          <t>https://www.amazon.com/-/es/Simon-Monk/dp/1260012204/ref=sr_1_105?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-105</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>GiiKER - Juego 3 en línea, consola de juegos de rompecabezas portátil 3 en 1, juegos de viaje portátiles, para educación y crecimiento de la memoria, juguetes de mesa para niños y adultos, regalos de</t>
+          <t>Hacking Electronics: Learning Electronics with Arduino and Raspberry Pi, Second Edition</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>B0CWRLGD9L</t>
+          <t>1260012204</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>39.99</v>
+        <v>22.32</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6317,42 +6321,40 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>800+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H136" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61a-STvPDyL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>800</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71JNR4a9NsL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/WALKERS-Recon-resistentes-intemperie-electr%C3%B3nicas/dp/B0CSQP6P1C/ref=sr_1_106?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-106</t>
+          <t>https://www.amazon.com/-/es/Encyclopedia-Electronic-Components-Orientation-Oscillation/dp/1449334318/ref=sr_1_106?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-106</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Walker's Recon - Orejeras digitales duraderas resistentes a IPX4, protección auditiva, 2 pilas AAA incluidas</t>
+          <t>Encyclopedia of Electronic Components Volume 3: Sensors for Location, Presence, Proximity, Orientation, Oscillation, Force, Load, Human Input, Liquid ... Light, Heat, Sound, and Electricity</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>B0CSQP6P1C</t>
+          <t>1449334318</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>62.45</v>
+        <v>17.79</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6361,42 +6363,40 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H137" t="n">
-        <v>14</v>
+        <v>657</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61ElxUjNuqL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/91Xuc+hJmML._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NzA0Mjc3OTc3MzQ0NjMyOjE3MjU4NzYyNjk6c3BfbXRmOjMwMDQwMDc4NzM4NTkwMjo6MDo6&amp;url=%2Fsoldadura-temperatura-termost%25C3%25A1tico-calentamiento-interruptor%2Fdp%2FB0969CV712%2Fref%3Dsr_1_107_sspa%3Fdib%3DeyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876269%26sr%3D8-107-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTkwMTE3NTA2OTI2NjgxOjE3MjY3NTk1ODU6c3BfbXRmOjMwMDM1ODYyMjcyMzEwMjo6MDo6&amp;url=%2Fcomprimido-el%25C3%25A9ctrico-velocidad-ajustable-dispositivo%2Fdp%2FB0D6YZFVGL%2Fref%3Dsr_1_107_sspa%3Fdib%3DeyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759585%26sr%3D8-107-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Kit de soldador, pistola de soldadura con temperatura ajustable y diseño termostático de cerámica de calentamiento rápido, interruptor de encendido y apagado, 5 puntas de soldador, cable de soldadura,</t>
+          <t>Plumero de aire comprimido, potente soplador de aire eléctrico de alta velocidad Turbo de 150 W con carga rápida USB C, plumero de aire ajustable de aleación de aluminio para teclado, dispositivo</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>B0969CV712</t>
+          <t>B0D6YZFVGL</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>9.99</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -6409,14 +6409,14 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="n">
-        <v>667</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Zzavl7QzL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61oipLOr2SL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6424,21 +6424,21 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NzA0Mjc3OTc3MzQ0NjMyOjE3MjU4NzYyNjk6c3BfbXRmOjIwMDEzMzY3NzMyODk5ODo6MDo6&amp;url=%2FHengTianMei-destornilladores-electr%25C3%25B3nica-herramientas-computadora%2Fdp%2FB0B92TDYMT%2Fref%3Dsr_1_108_sspa%3Fdib%3DeyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876269%26sr%3D8-108-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Charles-Platt/dp/1449333893/ref=sr_1_109?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-109</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>HengTianMei Juego de destornilladores de precisión electrónica de 141 piezas con kit de herramientas de reparación magnética de 120 puntas para iPhone, MacBook, computadora, laptop, PC, tableta, PS4,</t>
+          <t>Encyclopedia of Electronic Components Volume 1: Resistors, Capacitors, Inductors, Switches, Encoders, Relays, Transistors</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>B0B92TDYMT</t>
+          <t>1449333893</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>27.99</v>
+        <v>14.59</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6447,18 +6447,18 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H139" t="n">
-        <v>53</v>
+        <v>1100</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71LfZboX1yL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71sqtyEQhPL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6466,21 +6466,21 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/destornilladores-magn%C3%A9ticos-herramientas-reparaci%C3%B3n-electr%C3%B3nica/dp/B0CRDP4ZGR/ref=sr_1_109?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-109</t>
+          <t>https://www.amazon.com/-/es/Mitchel-Schultz/dp/1260571440/ref=sr_1_110?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-110</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Juego de destornilladores de precisión, juego de destornilladores pequeños 24 en 1 magnéticos, mini juego de destornilladores con funda, kit de herramientas de reparación electrónica para</t>
+          <t>ISE Grob's Basic Electronics (ISE HED ENGINEERING TECHNOLOGIES &amp; THE TRADES)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>B0CRDP4ZGR</t>
+          <t>1260571440</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>4.99</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -6489,42 +6489,40 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H140" t="n">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81+mUoIWk5L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J140" t="n">
-        <v>400</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/31QCJO23v7L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Simon-Monk/dp/1260012204/ref=sr_1_110?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-110</t>
+          <t>https://www.amazon.com/-/es/Nekteck-Masajeador-amasamiento-compresi%C3%B3n-circulaci%C3%B3n/dp/B07WYX1D4H/ref=sr_1_111?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-111</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Hacking Electronics: Learning Electronics with Arduino and Raspberry Pi, Second Edition</t>
+          <t>Nekteck - Masajeador de pies Shiatsu con calor relajante, terapia de amasamiento profundo, compresión de aire, alivia el dolor de pies y mejora la circulación de la sangre, para relajarse en la casa o en la oficina (gris)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1260012204</t>
+          <t>B07WYX1D4H</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>22.32</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -6533,41 +6531,41 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>5 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H141" t="n">
-        <v>219</v>
+        <v>18701</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71JNR4a9NsL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81g08dnS6hL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/SC-300-Circuitos-r%C3%A1pidos-Sc-300-Negro/dp/B0000683A4/ref=sr_1_111?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-111</t>
+          <t>https://www.amazon.com/-/es/Nintendo-SwitchTM-Neon-Blue-Joy%E2%80%91ConTM-Switch/dp/B0BFJWCYTL/ref=sr_1_112?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-112</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Circuitos rápidos Sc-300., Negro</t>
+          <t>Nintendo Switch™ with Neon Blue and Neon Red Joy‑Con™</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>B0000683A4</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>48.99</v>
-      </c>
+          <t>B0BFJWCYTL</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -6575,42 +6573,40 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G142" t="n">
         <v>4.8</v>
       </c>
       <c r="H142" t="n">
-        <v>27264</v>
+        <v>7783</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91Hgl5CqLdL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J142" t="n">
-        <v>1000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71wpE+ZIehL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/electr%C3%B3nico-acorazado-estrategia-especiales-jugadores/dp/B0C3DS2S9H/ref=sr_1_112?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-112</t>
+          <t>https://www.amazon.com/-/es/Dr-Phillip-M-Angelos/dp/B0CWRSZG8N/ref=sr_1_113?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-113</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Hasbro Juego de mesa electrónico de acorazado para juegos, juego de estrategia de combate naval con sonidos, luces, ataques especiales, a partir de 8 años, 1-2 jugadores</t>
+          <t>RF Electronics: Learn Radio Fast</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>B0C3DS2S9H</t>
+          <t>B0CWRSZG8N</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>34.41</v>
+        <v>12.99</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -6619,42 +6615,40 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>700+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H143" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81Laa9uEFJL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J143" t="n">
-        <v>700</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61qxoPdlusL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Charles-Platt/dp/1449334180/ref=sr_1_113?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-113</t>
+          <t>https://www.amazon.com/-/es/%E3%80%90Actualizado%E3%80%91-retr%C3%A1ctil-autom%C3%B3vil-adaptador-compatible/dp/B0CYKPP2SM/ref=sr_1_114?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-114</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Encyclopedia of Electronic Components Volume 2: Leds, Lcds, Audio, Thyristors, Digital Logic, and Amplification</t>
+          <t>【Actualizado】 Cargador retráctil SUPERONE 4 en 1, cargador de teléfono rápido para automóvil con cable de 2.6 pies, USB C y adaptador de cargador de automóvil Apple, compatible con iPhone 15/15 Pro</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1449334180</t>
+          <t>B0CYKPP2SM</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>17.99</v>
+        <v>27.99</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -6663,40 +6657,42 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H144" t="n">
-        <v>661</v>
+        <v>1485</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91GlnDQ+fWL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61Mc7-8q4sL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/destornilladores-herramientas-115-profesional-electr%C3%B3nica/dp/B0BXLWC9LJ/ref=sr_1_114?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-114</t>
+          <t>https://www.amazon.com/-/es/Art-Electronics-x-Chapters/dp/1108499945/ref=sr_1_115?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-115</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Juego de destornilladores de precisión, kit de herramientas de reparación magnética 115 en 1 de grado profesional para electrónica, computadora, iPhone, laptop, consola de juegos, relojes,</t>
+          <t>The Art of Electronics: The x Chapters</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>B0BXLWC9LJ</t>
+          <t>1108499945</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>9.98</v>
+        <v>50.79</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6705,42 +6701,40 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>600+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H145" t="n">
-        <v>751</v>
+        <v>524</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81PoQNF5MfL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J145" t="n">
-        <v>600</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/8196-pEqrHS._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Benjamin-Spahic/dp/B08LNBH65Z/ref=sr_1_115?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-115</t>
+          <t>https://www.amazon.com/-/es/Electronics-Studio-Handheld-Supercardioid-Microphone/dp/B09MZNC8GS/ref=sr_1_116?dib=eyJ2IjoiMSJ9.GAoSGF4h22rCny_vTuNbFbIRsoZMgIxnfVrZaiJEGhTODNKyYU4_UmJ29Y17uQwjfnbA-eU-_QzLnRNhlMhXjrGmzYjHUaClsx2LhLvdUM1jY36tgi4KCPqoRc4MjaUQZgtQg5j_9_cQoAL3BLCuTxNguhE2P5u20JROckXnhfHJzavnxL_USufSw1DW1IZDHHsqZKeQhVdeX0PovEui7bqu67HW-cq1dF2Suxxm0nA.5j-yHqtTI72U-1usqpVUXZfKUaJwiJGBkbgdtJBW-o4&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759585&amp;sr=8-116</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Electrical engineering without prior knowledge: Understand the basics within 7 days (Become an Engineer Without Prior Knowledge)</t>
+          <t>SE Electronics V7 BLACK Studio Grade Handheld Supercardioid Microphone with Shock Mount (Negro)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>B08LNBH65Z</t>
+          <t>B09MZNC8GS</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>17.91</v>
+        <v>99</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -6749,40 +6743,42 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H146" t="n">
-        <v>389</v>
+        <v>147</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61EJPSaTuhL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71Jmn+DFmLL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Windell-Oskay/dp/1718502346/ref=sr_1_116?dib=eyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876269&amp;sr=8-116</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1ODk4MzQ5MjY4NTQwMDk5OjE3MjY3NTk1OTg6c3BfYXRmX25leHQ6MzAwMzY5ODA4NDI0OTAyOjowOjo&amp;url=%2FAmScope-Microscopio-digital-UHM210-articulado%2Fdp%2FB0B8QTJQ18%2Fref%3Dsr_1_114_sspa%3Fdib%3DeyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759598%26sr%3D8-114-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Open Circuits: The Inner Beauty of Electronic Components (Packaging may vary)</t>
+          <t>AmScope Microscopio digital HDMI de la serie UHM210 1080p 2.0MP en brazo articulado de 11"</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1718502346</t>
+          <t>B0B8QTJQ18</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>29.55</v>
+        <v>332.91</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6791,18 +6787,18 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="H147" t="n">
-        <v>965</v>
+        <v>4</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71DFuHo7CRL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51go5pffplL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -6810,21 +6806,21 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NzA0Mjc3OTc3MzQ0NjMyOjE3MjU4NzYyNjk6c3BfYnRmOjMwMDA2NDA2MTMyNDgwMjo6MDo6&amp;url=%2FTelescopio-principiantes-telescopios-profesionales-ecuatoriales%2Fdp%2FB0CG182KLQ%2Fref%3Dsr_1_117_sspa%3Fdib%3DeyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876269%26sr%3D8-117-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Mitchel-Schultz/dp/1260571440/ref=sr_1_115?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-115</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Telescopio, telescopio reflector 150EQ para adultos principiantes en astronomía, telescopios profesionales ecuatoriales manuales astronomía con lente Barlow 2X, adaptador de teléfono, trípode</t>
+          <t>ISE Grob's Basic Electronics (ISE HED ENGINEERING TECHNOLOGIES &amp; THE TRADES)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>B0CG182KLQ</t>
+          <t>1260571440</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>329.99</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6833,42 +6829,40 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H148" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/719QV4ImapL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J148" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/31QCJO23v7L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0NzA0Mjc3OTc3MzQ0NjMyOjE3MjU4NzYyNjk6c3BfYnRmOjMwMDE5MTIzMDEyMzQwMjo6MDo6&amp;url=%2FGrabadora-aplicaciones-transcribir-potenciado-compatible%2Fdp%2FB0CZX48H2Z%2Fref%3Dsr_1_118_sspa%3Fdib%3DeyJ2IjoiMSJ9.bPgImC-sPOme8jN_tm7NmLKYApRKVsLJULuKIvo2rvwjpuG63YSRWCYx17edPXwI9EufmkP8i7LlBVqAth9d7Ya433hMY5CMEF2Y9aAWVDZIlRwzFNYnQo-O6BsTcSQg8J4rGOS5Od4XAj6HpU-e3N-EzYwhyz52q5kFfRE8Pj6TpVL7XNIQPAb0R4XtYphu38z_14AkJNOBGpAtdTIYTatBY17rEwzWRm_6WaKWBec.eTGLmjpLyobdWmNwCaFWa0SnA4vX7PBt1lv6d00ECig%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876269%26sr%3D8-118-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Charles-Platt/dp/1449333893/ref=sr_1_116?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-116</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Grabadora de voz AI, grabadora de voz PLAUD Note con funda, control de aplicaciones, transcribir y resumir potenciado por ChatGPT, compatible con 59 idiomas, memoria de 64 GB, grabadora de audio para</t>
+          <t>Encyclopedia of Electronic Components Volume 1: Resistors, Capacitors, Inductors, Switches, Encoders, Relays, Transistors</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>B0CZX48H2Z</t>
+          <t>1449333893</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>159</v>
+        <v>14.59</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6877,42 +6871,40 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>6 K+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H149" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61dtI36xJxL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J149" t="n">
-        <v>6000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71sqtyEQhPL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNTg5Mzc4ODM2NDkyNjkxOjE3MjU4NzYyODE6c3BfYXRmX25leHQ6MzAwMzIwMzU1NzAzNzAyOjowOjo&amp;url=%2FMicroscopio-microscopio-laterales-flexibles-soldadura%2Fdp%2FB0D11R9T8J%2Fref%3Dsr_1_113_sspa%3Fdib%3DeyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876281%26sr%3D8-113-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Electronics-Studio-Handheld-Supercardioid-Microphone/dp/B09MZNC8GS/ref=sr_1_117?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-117</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Microscopio digital HDMI LCD de 7 pulgadas, microscopio de monedas 1600X con pantalla IPS de 1080P, luces LED, 2 luces laterales flexibles, microscopio de soldadura para PC para adultos,</t>
+          <t>SE Electronics V7 BLACK Studio Grade Handheld Supercardioid Microphone with Shock Mount (Negro)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>B0D11R9T8J</t>
+          <t>B09MZNC8GS</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>79.98999999999999</v>
+        <v>99</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6921,40 +6913,42 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H150" t="n">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71KsL9TF9TL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71Jmn+DFmLL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNTg5Mzc4ODM2NDkyNjkxOjE3MjU4NzYyODE6c3BfYXRmX25leHQ6MzAwMjA3NjcwNDA0NTAyOjowOjo&amp;url=%2FTC51-TC52-TC56-TC510K-SG-TC5X-EXONHS-01%2Fdp%2FB0CZDQ4G6F%2Fref%3Dsr_1_114_sspa%3Fdib%3DeyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876281%26sr%3D8-114-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/%E3%80%90Actualizado%E3%80%91-retr%C3%A1ctil-autom%C3%B3vil-adaptador-compatible/dp/B0CYKPP2SM/ref=sr_1_118?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-118</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TC51 TC52 TC56 TC57 TC510K - Funda protectora y ergonómica para escáneres de código de barras de mano Zebra SG-TC5X-EXO1-01 SG-TC5X-EXONHS-01 (mezcla roja-amarillo)</t>
+          <t>【Actualizado】 Cargador retráctil SUPERONE 4 en 1, cargador de teléfono rápido para automóvil con cable de 2.6 pies, USB C y adaptador de cargador de automóvil Apple, compatible con iPhone 15/15 Pro</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>B0CZDQ4G6F</t>
+          <t>B0CYKPP2SM</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>35.99</v>
+        <v>27.99</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6963,40 +6957,42 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H151" t="n">
-        <v>4</v>
+        <v>1485</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71PiTuwgTbL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61Mc7-8q4sL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HAMPBACK-MK-0-PRO-almohadillas-auriculares/dp/B0D12P5F76/ref=sr_1_115?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-115</t>
+          <t>https://www.amazon.com/-/es/Dr-Phillip-M-Angelos/dp/B0CWRSZG8N/ref=sr_1_119?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-119</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MK-0 PRO - Juego de batería eléctrica con 4 almohadillas de malla, 3 golpes de goma completos, bombo, 12 kits y 68 sonidos auténticos, USB MIDI, trono, palos, auriculares, 2 pedales para</t>
+          <t>RF Electronics: Learn Radio Fast</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>B0D12P5F76</t>
+          <t>B0CWRSZG8N</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>249.99</v>
+        <v>12.99</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7005,42 +7001,40 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H152" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61LR8QLdPiL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J152" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61qxoPdlusL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/destornilladores-magn%C3%A9ticos-herramientas-reparaci%C3%B3n-electr%C3%B3nica/dp/B0CRDP4ZGR/ref=sr_1_116?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-116</t>
+          <t>https://www.amazon.com/-/es/electr%C3%B3nico-temperatura-controlada-termost%C3%A1tico-calentamiento/dp/B0B28JQ95M/ref=sr_1_120?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-120</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Juego de destornilladores de precisión, juego de destornilladores pequeños 24 en 1 magnéticos, mini juego de destornilladores con funda, kit de herramientas de reparación electrónica para</t>
+          <t>Kit de soldador electrónico, pistola de soldadura digital LCD de 80 W con temperatura ajustable controlada y diseño termostático de cerámica de calentamiento rápido, kit de soldadura de 24 piezas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>B0CRDP4ZGR</t>
+          <t>B0B28JQ95M</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>4.99</v>
+        <v>21.99</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7049,42 +7043,42 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H153" t="n">
-        <v>143</v>
+        <v>1444</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81+mUoIWk5L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81TIeHukG3L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Charles-Platt/dp/1449334180/ref=sr_1_117?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-117</t>
+          <t>https://www.amazon.com/-/es/Samsonite-B%C3%A1scula-electr%C3%B3nica-equipaje-color/dp/B00OVADLBU/ref=sr_1_121?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-121</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Encyclopedia of Electronic Components Volume 2: Leds, Lcds, Audio, Thyristors, Digital Logic, and Amplification</t>
+          <t>Samsonite Báscula electrónica de equipaje, color negro, talla única, Negro -, Báscula electrónica de equipaje</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1449334180</t>
+          <t>B00OVADLBU</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>17.99</v>
+        <v>19.6</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7093,40 +7087,42 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H154" t="n">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91GlnDQ+fWL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/51McQQKw5gL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/destornilladores-herramientas-115-profesional-electr%C3%B3nica/dp/B0BXLWC9LJ/ref=sr_1_118?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-118</t>
+          <t>https://www.amazon.com/-/es/Art-Electronics-x-Chapters/dp/1108499945/ref=sr_1_122?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-122</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Juego de destornilladores de precisión, kit de herramientas de reparación magnética 115 en 1 de grado profesional para electrónica, computadora, iPhone, laptop, consola de juegos, relojes,</t>
+          <t>The Art of Electronics: The x Chapters</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>B0BXLWC9LJ</t>
+          <t>1108499945</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>9.98</v>
+        <v>50.79</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7135,42 +7131,40 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>600+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H155" t="n">
-        <v>751</v>
+        <v>524</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81PoQNF5MfL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J155" t="n">
-        <v>600</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/8196-pEqrHS._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Benjamin-Spahic/dp/B08LNBH65Z/ref=sr_1_119?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-119</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1ODk4MzQ5MjY4NTQwMDk5OjE3MjY3NTk1OTg6c3BfbXRmOjMwMDA2MTY3MDgzNTMwMjo6MDo6&amp;url=%2Fdp%2FB0C4T3NTGP%2Fref%3Dsr_1_123_sspa%3Fdib%3DeyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759598%26sr%3D8-123-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Electrical engineering without prior knowledge: Understand the basics within 7 days (Become an Engineer Without Prior Knowledge)</t>
+          <t>Redodo 2000W Power Inverter, Pure Sine Wave Inverter 12V DC to 110V-120V, 18A Max. AC Outlets, LCD Monitor, Multiple Protection, AC Inverter for Home appliances, Electronics, RV, Truck, Solar Power</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>B08LNBH65Z</t>
+          <t>B0C4T3NTGP</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>17.91</v>
+        <v>219.99</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7179,18 +7173,18 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H156" t="n">
-        <v>389</v>
+        <v>66</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61EJPSaTuhL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61RoYakNagL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7198,21 +7192,21 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Penstar-eNote-N10-electr%C3%B3nico-Paperwhite/dp/B0D59B2DC1/ref=sr_1_120?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-120</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1ODk4MzQ5MjY4NTQwMDk5OjE3MjY3NTk1OTg6c3BfbXRmOjIwMDEzMzcxNzg5MjQ5ODo6MDo6&amp;url=%2FHengTianMei-destornilladores-electr%25C3%25B3nica-herramientas-computadora%2Fdp%2FB0B92TDYMT%2Fref%3Dsr_1_124_sspa%3Fdib%3DeyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1726759598%26sr%3D8-124-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>eNote N10 - Tableta digital de papel, tableta para tomar notas de papel electrónico, tableta de tinta E de 10.3 pulgadas, pantalla Paperwhite para escribir y leer, lápiz digital | cubierta</t>
+          <t>HengTianMei Juego de destornilladores de precisión electrónica de 141 piezas con kit de herramientas de reparación magnética de 120 puntas para iPhone, MacBook, computadora, laptop, PC, tableta, PS4,</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>B0D59B2DC1</t>
+          <t>B0B92TDYMT</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>369.99</v>
+        <v>13.99</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7221,18 +7215,18 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Típico:</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ux28yuCXL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71LfZboX1yL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7240,21 +7234,21 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Windell-Oskay/dp/1718502346/ref=sr_1_121?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-121</t>
+          <t>https://www.amazon.com/-/es/GIBILISCO/dp/126444138X/ref=sr_1_125?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-125</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Open Circuits: The Inner Beauty of Electronic Components (Packaging may vary)</t>
+          <t>Teach Yourself Electricity and Electronics, Seventh Edition</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1718502346</t>
+          <t>126444138X</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>29.55</v>
+        <v>25.13</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7267,14 +7261,14 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H158" t="n">
-        <v>965</v>
+        <v>32</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71DFuHo7CRL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/817BvjUmvSL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7282,22 +7276,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0D9JMXV2B/ref=sr_1_122?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-122</t>
+          <t>https://www.amazon.com/-/es/Nintendo-SwitchTM-Neon-Blue-Joy%E2%80%91ConTM-Switch/dp/B0BFJWCYTL/ref=sr_1_126?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-126</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>5.1 Wireless CarPlay Adapter for All Factory Wired CarPlay Cars Wireless CarPlay Dongle Convert Wired to Wireless CarPlay</t>
+          <t>Nintendo Switch™ with Neon Blue and Neon Red Joy‑Con™</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>B0D9JMXV2B</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>39.99</v>
-      </c>
+          <t>B0BFJWCYTL</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -7305,42 +7297,40 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H159" t="n">
-        <v>69</v>
+        <v>7783</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71tDOP-Pp0L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J159" t="n">
-        <v>1000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71wpE+ZIehL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNTg5Mzc4ODM2NDkyNjkxOjE3MjU4NzYyODE6c3BfbXRmOjMwMDI2MTgyOTM4NTEwMjo6MDo6&amp;url=%2FBluetooth-inal%25C3%25A1mbrico-altavoces-impermeables-dispositivos%2Fdp%2FB0D25S9TPG%2Fref%3Dsr_1_123_sspa%3Fdib%3DeyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876281%26sr%3D8-123-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Donner-DED-80-electr%C3%B3nica-almohadillas-silenciosas/dp/B09ZXR98LJ/ref=sr_1_127?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-127</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Altavoz Bluetooth, altavoz inalámbrico portátil, altavoces impermeables IPX5, sonido estéreo fuerte con luces RGB, altavoces TWS de larga duración para el hogar, fiesta, exterior, dispositivos</t>
+          <t>Donner DED-80 - Juego de batería electrónica con 4 almohadillas de malla silenciosas, más de 180 sonidos, 2 pedales, trono, auriculares, palos y lecciones de melódica</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>B0D25S9TPG</t>
+          <t>B09ZXR98LJ</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>7.99</v>
+        <v>299.95</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -7349,42 +7339,42 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>600+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H160" t="n">
-        <v>36</v>
+        <v>905</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71SIdYD2lBL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/714yvRzAegL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNTg5Mzc4ODM2NDkyNjkxOjE3MjU4NzYyODE6c3BfbXRmOjMwMDQwMjYxNjUyMjEwMjo6MDo6&amp;url=%2FMicroscopio-microscopio-coleccionistas-entusiastas-electr%25C3%25B3nica%2Fdp%2FB0D2LCY86S%2Fref%3Dsr_1_124_sspa%3Fdib%3DeyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876281%26sr%3D8-124-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Arcade-Gamer-Portable-Electronic-juegos-electr%C3%B3nicos/dp/B097ZC7YGT/ref=sr_1_128?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-128</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Microscopio digital LCD de 7 pulgadas 1200X para adultos, microscopio USB de soldadura de 12MP 1080P con 10 luces LED, ideal para coleccionistas de monedas, entusiastas de la electrónica, compatible</t>
+          <t>My Arcade Go Gamer Portable - Handheld Gaming System - 300 Retro Style Games - Battery Powered - Full Color Display - Volume Buttons - Headphone Jack - Electronic Games</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>B0D2LCY86S</t>
+          <t>B097ZC7YGT</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>75.98999999999999</v>
+        <v>29.99</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -7393,42 +7383,40 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H161" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ngCEx2xiL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J161" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81hBriWxQ+L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/John-G-Kassakian/dp/1316519511/ref=sr_1_125?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-125</t>
+          <t>https://www.amazon.com/-/es/SAMSUNG-galaxia-inteligente-suscripci%C3%B3n-aplicaci%C3%B3n/dp/B0D3JF9C97/ref=sr_1_129?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-129</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Principles of Power Electronics</t>
+          <t>SAMSUNG Anillo para galaxia, anillo inteligente AI, tamaño primero con kit de tamaño, sin suscripción a la aplicación, monitor de fitness, monitor de sueño, batería de hasta 7 días, tamaño 12, negro</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1316519511</t>
+          <t>B0D3JF9C97</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>73.93000000000001</v>
+        <v>399.99</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -7437,40 +7425,42 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61FZhTDOukL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71ZbeV6rS-L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/42924-Tamagotchi-Original-Dreamy/dp/B09Y9LLNG8/ref=sr_1_126?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-126</t>
+          <t>https://www.amazon.com/-/es/Duracell-MN27BPK09-alcalina-5001878-unidades/dp/B00AZOOGWY/ref=sr_1_130?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-130</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tamagotchi Original - Dreamy</t>
+          <t>Duracell MN27BPK09 Batería alcalina de entrada sin llave, 12.0V (5001878) 1 paquete de 2 unidades</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>B09Y9LLNG8</t>
+          <t>B00AZOOGWY</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>24.17</v>
+        <v>5.09</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -7479,42 +7469,42 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H163" t="n">
-        <v>8292</v>
+        <v>4387</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81haRTNXD-L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61q3YV3iM4L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Kit-de-herramientas-Pro-Tech/dp/B01GF0KV6G/ref=sr_1_127?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-127</t>
+          <t>https://www.amazon.com/-/es/Proyector-Bluetooth-certificado-autom%C3%A1tico-inteligente/dp/B0D8BCJ1PV/ref=sr_1_131?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-131</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Kit de herramientas Pro Tech.</t>
+          <t>[1000 ANSI y audio de dbx-tv] Proyector Alvar 4K con WiFi y Bluetooth, certificado NetfIix y audio DoIby, enfoque automático y proyector inteligente Keystone Native 1080P con altavoces HDR10+, 30W,</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>B01GF0KV6G</t>
+          <t>B0D8BCJ1PV</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>74.95</v>
+        <v>399.99</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -7523,42 +7513,42 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1 K+ comprados el mes pasado</t>
+          <t>400+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H164" t="n">
-        <v>18400</v>
+        <v>28</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/910pxflmH4L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81kEq+omQZL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Encyclopedia-Electronic-Components-Orientation-Oscillation/dp/1449334318/ref=sr_1_128?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-128</t>
+          <t>https://www.amazon.com/-/es/electr%C3%B3nico-acorazado-estrategia-especiales-jugadores/dp/B0C3DS2S9H/ref=sr_1_132?dib=eyJ2IjoiMSJ9.JBF7fVdoBg46Aj6gn1TJBceDn9ICOncWcidYsOo8wXuaYpdScjJDoM52M2MhccZnx2Ma9ESJQYgIM9NtuuVESpXmGo1YJpkD4nWWbrKD56u8BdyLf5Yv3YtielN5nTKcujSZDiL9nebCu7pKue2lhacZy2Fpzhm3HvqOwgGbJ7L56xy6SU6FuIR-nxXG_-ZbRlh31LjvU9yL0T8VE3OkVDzn4xeEhazSxTn1nvCScP4.joIVzrbmr4RY2vcqq0cp4-yyuksLCDgnmChZmKXLPks&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1726759598&amp;sr=8-132</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Encyclopedia of Electronic Components Volume 3: Sensors for Location, Presence, Proximity, Orientation, Oscillation, Force, Load, Human Input, Liquid ... Light, Heat, Sound, and Electricity</t>
+          <t>Hasbro Juego de mesa electrónico de acorazado para juegos, juego de estrategia de combate naval con sonidos, luces, ataques especiales, a partir de 8 años, 1-2 jugadores</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1449334318</t>
+          <t>B0C3DS2S9H</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>17.79</v>
+        <v>31.33</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -7567,235 +7557,23 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>700+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H165" t="n">
-        <v>658</v>
+        <v>89</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91Xuc+hJmML._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/Apple-Tarjeta-regalo-AirPods-accesorios/dp/B08DXXS6Q7/ref=sr_1_129?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-129</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Apple Tarjeta de regalo - App Store, iTunes, iPhone, iPad, AirPods, MacBook, accesorios y más (eGift)</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>B08DXXS6Q7</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>15</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H166" t="n">
-        <v>65400</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/41oM1v9KvnL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/SwitchBot-Abrecortinas-autom%C3%A1tico-inteligente-temporizador/dp/B0C6XVXPCC/ref=sr_1_130?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-130</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>SwitchBot Abrecortinas automático – Cortina inteligente con control remoto Bluetooth con aplicación/temporizador, motor de alto rendimiento mejorado, añade SwitchBot Hub para trabajar con Alexa,</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>B0C6XVXPCC</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>89.98999999999999</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>1 K+ comprados el mes pasado</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>4</v>
-      </c>
-      <c r="H167" t="n">
-        <v>975</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/71zue7LwuPL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J167" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/organizadora-BAGSMART-universal-port%C3%A1til-cargadores/dp/B017SKRY94/ref=sr_1_131?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-131</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Funda organizadora BAGSMART universal y portátil para cables y cargadores, gris</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>B017SKRY94</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>200+ comprados el mes pasado</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H168" t="n">
-        <v>7255</v>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/81hhEBbwQQL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J168" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/Art-Electronics-x-Chapters/dp/1108499945/ref=sr_1_132?dib=eyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og&amp;dib_tag=se&amp;keywords=Electr%C3%B3nicos&amp;qid=1725876281&amp;sr=8-132</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>The Art of Electronics: The x Chapters</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>1108499945</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H169" t="n">
-        <v>523</v>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/8196-pEqrHS._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNTg5Mzc4ODM2NDkyNjkxOjE3MjU4NzYyODE6c3BfYnRmOjMwMDI2ODk3NzM1OTAwMjo6MDo6&amp;url=%2FNEARITY-videoconferencia-C45-micr%25C3%25B3fono-altavoz%2Fdp%2FB0D4LMW7KT%2Fref%3Dsr_1_133_sspa%3Fdib%3DeyJ2IjoiMSJ9.a08s4JjNit4CMTY_5_BWKT4twMAgtU6-PcohVTeTt_9PCDiOLHGWC6WkvSSUJpaPL-bQKytm2fXPZUQV6Jhjk2WtOcgSPAg8WWl5Xdj-sIT8Uhp8YTWw_hPrurEexkJ7yNLeK8mFoQCYfU9xcCJFrlHxCejmgu0z23hUvRw9NAPqTLqcWXGKuN6X9glWBABG0n4YIQfDG7O1ezEz-FA6XjhFrXxH_roAy9BPbkRk2b8.Qqwrbc1VjgT_oZk7pM6Bp8w20JpSkHQRdtk1P0on9og%26dib_tag%3Dse%26keywords%3DElectr%25C3%25B3nicos%26qid%3D1725876281%26sr%3D8-133-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Cámara web de videoconferencia C45 2K con micrófono y altavoz</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>B0D4LMW7KT</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>299.99</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H170" t="n">
-        <v>17</v>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/618X6x+ud-L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81Laa9uEFJL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>700</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
